--- a/xlsx/노트북_sort.xlsx
+++ b/xlsx/노트북_sort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,108 +451,248 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>리뷰</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>감정분석 스코어</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>추천점수</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 NT350XCR-AD5AS</t>
+          <t>삼성전자 노트북 플러스2 NT550XDA-K24AW</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569000</v>
+        <v>598000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://cr.shopping.naver.com/adcr.nhn?x=UYGOtUsiIj%2FZKph3HflYw%2F%2F%2F%2Fw%3D%3Dsug95fq4bIizOk8SK%2FV4cS67DXkRG2UqLxRQ5bJgRfmr2JuB1xbdLlYSG9uR1HG3pwLPM6KCOUxaKknuXyxV9CTeZKrcPE%2Bh0IXFmbGDo321G5FbfyMmSNj4JAuxXRM%2FT51hvluAPe6Pn6i3wbiCdAt9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLloV%2FPNdgiGjVUT2Iz2ZO1CKAIbpwv%2BC6ot980PsBr8Pac1A9eX%2F2kC2ux9IFZyvDiFkaHc3BhLNREZQfPJiVr6Lj%2BvSXPWhKT0BbyrMWxS%2Bk6v2w9jBqMGR4TTsgYaQnlII%2ByYYqWVu3SSXxcjEJdLzT1B6QQOx0yXMKu5OaABxqLzcRVswO%2FNXTrA15l4GN%2FI5Wy4%2B4iMbCDSP2g27rRbQAY2lrJ74CnrE9Io%2Fhs3OcPfwzF9ktWcxdrcTtO8KUCP3P%2F3tx0BZtzlKxg%2BzXZ6XMs5r4Mq7iClHM2nG9vkUIpiWGiGzzmwmEBDVPk7qw68vHoQStgf6kvpxntyM4mYgN%2F1NgM4LgvOAJ6Euy6vmrwIgMsMVmSlVXIkUYCJkeqsnNasVRKFmybq8zJh%2FSWuR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=25228569522&amp;catId=50000151</t>
+          <t>https://cr.shopping.naver.com/adcr.nhn?x=1GNKvM%2BTOcHg7xkJ0%2FAXv%2F%2F%2F%2Fw%3D%3DsF7lTdO3m6Cp4LY%2BTH9RBuOVhvo6jTh9I555myJvwue8XtKWU5l2RZhzweonlysWahr%2BgPa0pE9P7U9KmLjLzpiuRrA%2FEOWA3Ag8FfJr8KwLk%2BBnTT%2BeyHZ2PB6RaT6Lyxufr8v0LsORhMSLYJVIH2cv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK5MEXPXgyZR7qMwb%2BavaLKNjMLMF37IGTcafAkl8SUA2Ns2H4zHWoQIfujeLGeulExTOkjawsOxsl5BcK%2BEoPKWMjnQdnL9wtXZ1LI9BLQeEQhkkHXK4%2FmSRy5icYE%2F27ZC%2BSXUxwyLUckntucAABtRm8LxbsYM4wVVdZWF2WUG46JIeyjRJJG8AQSjlBThBKwGzJzXPgq4NqvxAOjtnJwRoFP7p9U9LJLh2ZW9IhrooiNvEAyH7XT6ObGe95mRdUd3%2FGeyhUFwMFDpk0nKSQD9oiAmNwzw%2FscbWY0t0xNl%2BR%2FJZwKh8rCTewT95PlMIDFcuWJhrywhtUVcmTzlqLTxLPHBVE1X9hF6ZkrnPWwISUjplOJl42ph25uL9bty1Yfqx4RdjiTkrK1IOvLLtPZmhopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=26760806522&amp;catId=50000151</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2013년에 구매한 노트북이 키보드가 문제가 생겨 구매했습니다.기존 사용하던 노트북도 삼성 제품이어서 삼성으로 알아보고 구매했는데, 저렴한걸 찾다 보니 이 제품으로 선택했어요. 일단 구매 후 실물로 접한 제 개인적인 의견은 후회 쪽입니다 ㅠㅠ일단 무겁다는걸 예상했지만, 예상보다 무겁네요. 13인치 950g짜리를 8년간 사용해서 더 그런 듯 합니다. 가방에 넣어서 들고 다닐 순 있지만 휴대성은 확실히 떨어집니다. 그러니 집이나 사무실 등 한 장소에 두고만 쓰실 분들은 구매하셔도 될 것 같습니다. 그리고 뭣보다 모니터 화질이 가장 어렵네요ㅠㅠ 전체적으로 뿌연 느낌입니다. 노안이 와서 15인치가 더 낫겠거니 하고 구매한 것도 있는데, 대학생 아이가 쓰는 제품도 15인치라 같은거라고 생각했더니 화면이 생각보다 선명하지 않아 눈에 피로가 쌓이네요...이전에 사용하던 노트북은 화질도 선명/깨끗하고 눈에 피로감도 전혀 없었는데 이 노트북은 자꾸 안 쓰고 싶어집니다...이걸로 인강이나 줌 수업 듣다가는 두통이 많이 올거 같아요...후기들이 다 좋아서 구매한건데 기존 노트북 키보드 수리해서 다시 쓰고 이건 따로 처분할까 싶어요ㅠㅠ</t>
-        </is>
+          <t xml:space="preserve">기존 사용하던 삼성 노트북이 운명하여..새로운 노트북을 구입하기위해 폭풍검색~ 컴잘알 지인이 비슷한가격대의 다른회사 노트북을 추천해줬으나 삼성이라는 브랜드와 윈도우가 깔려있다는것. 향후 as등을 생각해서 이번에도 삼성으로 결정! 그중  한사랑씨앤씨가 상품평도많고 사은품등 혜택도많고 믿음이가서 구입했습니다.제품은 설명대로이고. 한컴오피스팩도 무료로 제공되어 직접설치했구요. 간단한 문서작성엔 문제없을것같아요. 인터넷과 간단한업무용으로 구입한거라 높은사양은 아니지만 가성비좋게 구입한것같습니다. 며칠 사용해보고 이상없으면 2대 더 구입할예정입니다.게임이나 디자인등 고사양이 필요한분이 아니라면 가격.사양 등  사용하기 괜찮을것 같습니다.
+573,000구매해서 오늘 토요일 배송 받았어요딸이 너무 좋아하고 월요일부터 원격수업 할수있어서 좋습니다 HDD장착 기본팩으로 구매했거든요 들어있지 않네요 한참 찾아보고 있어요 없는 건가요 추가신청해야 되는 것인지 모르겠어요 뒷쪽 뚜껑 열다가 조금 부러졌거든요 AS되는건가요문의하니 평일 다시 신청 하라고해서 서비스센타 방문하라고 하네요  성능은 너무 좋습니다 딸이 가지고 싶어해서 구매해보았어요 앞쪽에 액정이나 이런거 붙이는거 따로 없는것 같아요 금방 먼지 들러붙고 하네요 50자 상품평 남기고 커버 받을려구요 아무튼 잘 구매해서 좋습니다 배송도 완전 빠르고 바로 적립 23,000 네이버페이적립 받았어요무선마우스 건전지 넣고 아무 작동을 하지 않아서 새건전지만 몇개씩 바꿔끼워도 아무작동도 하지않고 불만 처음건전지 넣고 잠깐 작동하고 설명서에 나와있지도 않고 해서 고민하고 있는데 딸이 마우스 안에서 뭔가 보더니 안쪽에 칩하나가 들어있었어요 그거를 왼쪽오른쪽 바꿔가면서 끼워보았는데 안맞아서 또 한참 헤매이다가 오른쪽 조금 힘있게 꾹 눌렀더니 약간 맞는것같더라구요 그래서 지금은 무선마우스 되요 건전지도 같이 들어있던거 쓰고 있어요HDD장착 메모리카드리 기본7종 사은품아닌가요노트북 처음 사용하는것이라서 완전 바쁘고 했는데 정신없네요 가격대비 제품 잘 구매해서 너무 좋아요
+10년 된 삼성노트북 1대와 5-6년정도 사용한 lg노트북이 있었는데 엘지 제품이 수명을 다해서 엘지 브랜드로 가성비 좋은 제품을 찾고 있었는데요.생각해보니 삼성 노트북도 10년 넘게 서브용으로 잘 쓰고 있어서 여러 제품을 알아보다가 이 제품으로 구매하게 되었어요.처음에 웹서핑,문서작업, 인강용으로 굳이 비싼 제품은 필요 없어서 cpu가 셀러론인 제품으로 구매하려고 했었거든요. 근데 때마침 한사랑씨앤씨에서 라이브방송 이벤트도 한다길래 제품을 봤더니 좀 더 저렴하게 펜티엄 골드 제품으로 방송한다고 해서 이 날만 기다렸네요ㅎㅎ 12개월 무이자할부랑 램&amp;amp;ssd 업그레이드 그리고 사은품까지 대박이죠ㅎㅎ라이브 방송 보면서도 색상을 참 고민 많이 했는데 기존 삼성제품이 그레이색상이라 화이트로 구매했고 깔끔해서 이쁘네요ㅎㅎ 성능은 이 정도면 만족해요! 소음은 거의 없는것 같아요. 터치패드는 잘 안쓰긴 하는데 넓어요~ 무엇보다 키패드 오른쪽에 숫자판이 있어서 편해요. 윈도우도 깔려 있으니 컴알못인 저한테 딱이죠^^;;아무튼 무거운 작업용이 아니라 가벼운 용도로 쓰는 거여서 이걸로 충분하고 여러제품 비교하면서 산거라 저렴하게 잘 구입해서 만족해요!! 가성비 굿굿 오래 잘 쓰면 좋겠어요~~
+간단한 웹서핑, 문서작성, 인강용으로 괜찮은 노트북을 찾던 중 이 노트북이 디자인도 깔끔하고 가성비가 좋은 것 같아 구매했어요! 처음 사는 노트북이라 고민 많이 했는데 받고 써보니 잘 산 거 같아 너무 만족해요ㅎㅎ화면이 15인치라 답답하지 않고 음질도 좋아서 동영상을 보거나 인강 들을 때 너무 만족하고 있고 무게는 조금 있는 편인데 저는 휴대용이 아니라 집에서만 쓸 거라 오히려 안정감 있고 괜찮았어요 사용해보니 소음은 거의 없는 편이고 발열도 심하지 않았어요 터치패드가 넓어서 쓰기 편하고 자판도 부드럽고 오른쪽에 숫자 키 패드가 있어서 편하고 좋았어요!무엇보다 윈도우가 깔려 있어서 따로 설치할 필요 없이 설정만 하고 바로 사용할 수 있어서 편했어요! 디자인도 깔끔하고 너무 이뻐요~~ 기본적인 마우스, 패드, 키스킨도 챙겨주시고 한컴까지..! 감사합니다 정말 가성비 좋은 노트북👍
+엄마께서 회사에서 작업을 하시는 노트북이 정말 유물급으로 오래된 노트북이었습니다. (윈도우 xp) ㅋㅋ 하루종일 노트북을 사용 하시지는 않으시지만 사용 시 너무 느리고 오류도 많고 수리 할 곳도 마땅치 않아 하셔서, 노트북을 사드리기로 마음 먹고 알아보았어요. 가까운 집 근처 디프에 가서도 알아보았는데 가장 저렴한게 100만원은 그냥 넘더라고요. 사실 엄마께서 연세가 있으셔서, 인터넷 검색 및 아주 간혹 문서작업만 하실 용도로 쓰실거라. 고사양에 노트북은 필요가 없었어요. 그래서 열심히 검색 해 본 결과 저렴한 노트북을 알게 되었고, 삼성 노트북을 정품에, 신형을 정말 중고도 안되는 가격에 구입하게 되었습니다. 색상은 흰색으로 했고요. 상품 발송은 주문하고 2~3일 걸린것 같아요. 엄마가 받아보시고 너무 좋고 특히. 너무 빠르다고 좋아하세요. 기본으로 윈도우랑 기본 프로그램이 다 깔려있어서, 그냥 전원키고 마우스 연결하고 와이파이 접속해서 바로 사용 가능 했고요, 자판도 큼직 하고 사은품으로 키보드자판 덮개랑 마우스, 마우스 패드도 챙겨주셔서 너무 감사했어요. 또 혹시 몰라 29000원으로 업그레이드 했는데 이 부분도 너무 만족 스럽습니다.  부모님세대가 쓰실 노트북 고민 이시라면 이 노트북 두번 세번 추천드립니다.
+[삼성 노트북 플러스2 NT550XDA-K24AW 리뷰]1. 삼성 노트북을 선택한 이유 10여년간 지인들 컴퓨터와 노트북을 대신 주문하면서 20여대 정도 구매해 봤습니다. 온라인과 오프라인에서 여러 대를 구매하면서 노트북은 삼성이라는 확신이 들었습니다. 비슷한 스펙의 해외 제품이 삼성보다 조금 저렴하다고 구매하고 나면 꼭 A/S에 문제가 생겼습니다. 5~6년 이상 문제 없이 쓰려면 국내 제품, 그 중에서도 삼성 제품이 오랫동안 만족하면서 사용할 수 있었습니다. 2. 한사랑씨앤씨에서 구매한 이유  작년에 삼성 컴퓨터 인증 판매점이라는 '한사랑씨앤씨'에서 삼성 노트북을 구매하고 합리적인 가격과 좋은 성능에 크게 만족하였습니다. 그래서 이번에 노트북을 구매할 때에도 네이버에서 삼성 노트북을 검색했을 때 상단에 한사랑씨앤씨가 나오길래 가성비가 보장되었다는 믿음이 들었고, 주저없이 구매했습니다^^3. 구매용도  이 노트북은 집에 두고 인터넷 강의를 보는 용도로 구매했습니다. 따라서 무게나 두께 등 크기는 별 상관이 없었고, 1년 이상 절대적인 시간을 투여해야 하는 임용 공부를 해야했기에 장시간 강의를 시청할 때 눈의 피로에 신경을 써야 했습니다. 따라서 시원한 큰 화면을 우선 순위로 뒀습니다.4. 장점: 우월한 가성비, 시원한 화면, 나름 고사양  60만원도 안되는 가격(64만원대에 구매했지만 포인트를 돌려받을 금액이 5만원 이상이었으므로)에 이렇게 뛰어난 스펙+윈도10까지 설치되어 있다니 감격했습니다!  250GB의 SSD에 8GB메모리면 인터넷 강의를 보고 문서작성하는 용도에는 뛰어난 스펙이라고 생각합니다. 펜티엄 골드라서 게임을 가동할 수준까지는 되지 않지만 실물을 받고 한글을 설치하고 이것저것 사용해보니 가격에 비해 정말 훌륭하고, 잘 샀다는 생각이 들었습니다. 무엇보다도 높은 해상도의 선명하고 시원한 화면이 마음을 사로잡았고요, 삼성에는 베젤을 깎는 기술이 정말 뛰어난 것 같습니다. 화면이 큰데도 베젤이 얇아서 노트북 크기가 생각보다 크지 않았어요. 그리고 두께도 이 정도면 부담스럽지 않았어요. 함께 주신 댕댕이 파우치에 쏙 들어가고도 남습니다~강추합니다 여기서 이 노트북 사세요!!^^5. 단점  아직 단점을 발견하지 못할만큼 가성비가 좋습니다. 굳이 찾아보자면 모서리 디자인이 좀 투박한 느낌이 있네요. 곡선에 익숙해서 그런 것 같습니다. 하지만 디자인은 주관적인 평가니까 좋거나 나쁘다를 평가할 문제는 아니라고 생각합니다. 이 정도 외모면 준수한 편이죠! 잘 쓰겠습니다~한 달 사용하고 리뷰 가져올게요!
+아이 학습용 및 인강용으로 쓰려고 주문 했는데 일단 배송이 빨랐고 윈도우10, SSD 256GB, 8G RAM 업글해서 쓰는걸 추천 해드립니다. 기본적으로 깔려있어야할건 다 깔려있고,영화, 서핑, 인강 및 문서 작업용으론 최고입니다^^ 50만원대라는 가격대비 만족스럽네용!! 화이트와 실버를 무한반복 고민을 수없이 한끝에 결국 실버를 택하였는데 사진상으론 밝아 보이지만 어두운 계열에 실버여서 고급스러우면서도 잘했다는 생각이 드네요. 제품받고 넷플릭스 바로 실행 해봤는데 끊김없고 화면도 15.6인치 화면이라 크기도 크고 만족스럽네용^^
+받자마자한컷찍었습니다갤럭스북플렉스~큰박스안에 작은박스와 키패드,보호필름, 마우스패드가있구요 작은박스는 저렇게씰이 뜯어져왔어요 뜯지말라되어있는데 저건 왜 저런가요... ㅠ그리고 제가 한컴오피스랑 램추가를사서그런지hdd악세사리가 왔습니다. 머샀는지도 모르는 ㅠ믿고사는삼성이니 걍 구매확정합니다 ..색깔고민진짜마니했는데.매장에서 실물을봤더니 그레이가 더끌렸어요.그리고 그냥 컴이먼지모르게고 가성비좋은 놋북 웹서핑인강및동영상간단한문서만하신다하시는분머리싸매지마시고 그냥이거사세요.  전문가정도가아닌이상 저같은사람은 한두단계사양올려도 구분도못하고이걸로 왠만한건 됩니다.
+몇 년동안 중1인 아들이  인강용 노트북을 잘 쓰다가 디스플레이 구석이 흐리게 나오면서 기능은 잘 작동하지만 아쉬움을 뒤로 하고, 가성비 성능이 우수한 노트북을 찾아보게 되었다.기존에 쓰던 레노버나 가성비 성능이 우수한 노트북을 계속 찾아보면서 고민하다가 우연히 네이버 라이브 방송을 한다는 것을 알게 되었고, 삼성몰 한사랑씨앤씨를 통해 라이브 방송에서 구매시 여러 물품과 가격 등 혜택을 받는 사실을 알게 되었다.사실 며칠동안 검색하며 찾아보았지만, 이번에 아무리 가성비 인강용 노트북이어도 삼성 것으로 사야겠다고 마음먹고 있었는데, 노트북 따로 HDD 업그레이드 따로 컴 하드맹인 나의 입장에서 추가적으로 고민하고 구매해야 하니 고민이 많아졌는데, 하드웨어 업그레이도 되어 있으면서 윈도우10도 자체적으로 깔아져 있다는게 마음이 놓였다.게다라 노트북 스킨, 무선 마우스 등 다양한 물품을 따로 구매하지 않아도 그냥 무료로 준다니 그 날 나는 고민하지 않고, 바로 저녁에 라이브 방송을 통해 노트북을 구매하게 되었다. 며칠 후 도착한 모습이다.  결론은 매우 만족이다. 디스플레이도 그렇고, 무게감도 그렇고, 노트북 키를 눌렀을 때 감이 매우 좋았다. 그리고 여러가지 혜택을 통해 추가적으로 구매를 안해도 되는 가성비 짱의 노트북이라는 점을 알게 되었다.그리고 개인적으로 그레이 색상도 맘에 들었다. 노트북 옆면도 생각보다 얇아서 만족스럽다..
+대체공휴일에 결제 진행 했었지만, 공휴일 끝나고 늦지않게 발송과 배송이 이뤄졌었어요! 노트북 도착하던 날, 직접 수령 할 수 없어서 우려하던 마음도 있었는데, 겉포장부터 단단해서 안심하며 늦게나마 잘 수령 했었어요. 포장도 꼼꼼하게 돼있어서 노트북 배송에 대한 걱정은 전혀 없었습니다. 그리고 주문했던 옵션과 기본 구성품들도 누락없이 꼼꼼하게 잘 포장돼서 왔었어요! 개인적으로는 한컴 포함해서 구매 할 수 있는점이 정말 좋은것 같아요. 개별적으로 정품 구매에 신경쓰지않아도 돼서 편해요. 그리고 하드 관련으로 모르는 부분이 있어서 전화 문의 드렸었는데, 설명도 세심하게 해주셔서 잘 이해 할 수 있었어요. 정말 감사했습니다. 노트북 셋팅은 그렇게 오래 걸리지 않았구요. 노트북 속도 빨라서 진짜 좋아요. 주로 문서 작업이나 영상 위주로 사용할 계획인데, 영상 화면이나 소리도 좋고 문서 작업하기도 수월해요. 구매하면서 많은 노트북들 검색했었는데, 여러 옵션들 덧붙여서 구매하면서 이 가격대로 노트북을 장만 할 수 있어서 좋았어요. 전체적으로 정말 만족해요 :)
+아이가 줌수업으로 사용했던 노트북이 고장나서 구매했어요. 아이가 쓸꺼라 그레이로 구매했는데 색감도 고급스럽네요. 화면도 크고 키보드도 부드럽다고 좋아해요. 화상수업할때는 웹캠화질이 VGA 해상도라 아쉽긴 하지만 그부분은 캠을 따로 구매하면 될 것 같고 가성비대비 좋아 부담없이 편하게 사용할 수 있을 것 같아요. 우선적으로 아이가 편하게 보고 사용할 수 있어 좋네요. 사은품도 주고 포인트도 적립되어 좀 더 저렴히 구매한것 같아요.
+목요일 저녁에 주문을 했는데 토요일 12시 쯤에 도착했어요배송이 일단 빨라서 좋았네요노트북이 디자인도 깔끔해서 너무 맘에 들었고 약간의 소음이 있긴 한데 거의 없는거나 마찬가지일정도로 소음이 크게 신경이 안쓰이고 가볍게 들고 다니면서 써도 좋을것 같네요이전에 태블릿으로 인터넷 강의를 듣고 있었는데 이걸로 하나 들어 보니까 크기도 커서 잘보이고 좋아요
+8월1일 기존쓰던 노트북이 사망하여 저렴하고좋은 새로운 넘으로 알아보던중 쇼핑라이브보고 괜찮아보여 구매하였네요.헌데 물건받고 이틀후인 23일 사망했던 넘이 부활해서 바로 비교해보니 확실히 차이가 나네요 부팅속도 부터가 기존건 답답 새건 시원하네요 디자인도 더깔끔하니 좋고 두께도 무게도 차이가 지네요. 가성비북으로써 만족스럽게 사용할수 있을꺼 같네요.
+기존의 사용하던 삼성 노트이 괜찮아서 고민없이 다시삼성 노트북으로 선택했습니다^^그럼 솔직한 리뷰 들어갑니다~~~1. 디자인일단 상품을 받아보고 생각보다 더 깔끔하고 고급진 외관에 놀랐습니다. 제품 자체는 얇고 가벼운데 색상 자체가 세련된 그레이라 무게감 있어보이고 고급스러움이 뿜뿜~~! 색상은 깔끔한 화이트로 하고 싶었으나, 오래 사용하려면 아무래도 그레이가 괜찮을 것 같아서 미스틱 그레이로 선택했습니다. 탁월한 선택이었고, 만족합니다! 표면에 삼성 로고 크기도 딱 적당해서 이마저도 이쁩니다 ㅎㅎ 2. 성능아무래도 새 제품이다보니 빠르고 좋습니다. 윈도우10,256GB ssd, 8G 램 업글해서 사용해보니 인강 및 문서작업으로 쾌적한 환경으로 만족스럽게 사용하고 있습니다. 기본도 좋지만 ssd,램은 업그레이드 추천합니다!3. 결론인강과 가벼운 문서 작업용으로 구매했는데..생각보다 상품이 더 좋아서 만족스럽습니다. 뭐든 구매하면 오래 사용하는 편이라 꼼꼼하게 이것저것 많이 알아보고 구매하는 편인데..이번 제품은 받아보니 더 만족스럽습니다! 고민하시는 분들은 망설이지 마시고 구매하셔도 후회하지 않으실 것 같습니다!!
+아이 둘인 집에서 노트북이 하나뿐이라 늘 한명은 휴대폰으로 수업듣다가 도저히 안되겠어서 온라인수업용으로 노트북을 찾던중 딱 쇼핑라이브 하루전에 발견무야호~ 라이브중에 가격할인과 사은품 7종과 퀴즈정답맞춰 led스탠드 선물까지 딱 우리가족에게 필요한 노트북이 시의적잘하게 너무너무 잘산것같아요.오늘 도착후 세팅하고 사은품한컴까지 깔아주니 수업준비 끝 큰 화면과 깨끗한 디자인에 큰애가 자기도 사달라네요.... 조만간 또 라이브해주세요~~~~~알람설정 필수!
+가성비팩 구매 했습니다^^배송도 빠르고 포장 잘 해주셨구요.가성비 좋은 노트북 답게 부팅 및 다운속도 아주 빠릅니다.대학원 원격강좌용으로 구매했는데요.첫 줌 수업 수강 결과, 끊기거나 애로한 상황 발생하지 않습니다. 포토샵 작업도 해보니 잘 되네요. 기본적인 수업수강 혹은 프로그램 작업하시는분께는 이런 노트북 없을거라 생각됩니다.추천하구요! 다음에도 애용 하겠습니다^^
+아이가 두명이라 집에 노트북이 두대입니다. 둘 다 6~7년 가량되었는데 어느순간부터 느리고 멈추고 잘 안되기 시작했어요. 1학기때 한대가 갑자기 켜지질 않아 급히 여기서 샀었는데 다음날 다시 켜지더라고요ㅡㅡ;;조금 버틸수있겠지싶어 뜯지 않았던 상태여서 반품을 했었는데 2학기개학을 몇일 앞두고 결국엔 사망하였어요. 그래서 다시 급히 알아보고 이 상품 구입했어요. 제가 사기 몇일전엔 라이브행사도 했던거같던데 조금아쉽지만 지금이라도 사길 잘했어요. 초딩이라 고사양 필요없고 온라인수업만 잘되면 되죠~이렇게 잘되는걸. . .진작샀으면 스트레스 덜받았을텐데 싶더라고요.게다가 배송 진짜 빨리 해주셔서 개학후 수업하는 첫날 잘 쓸수있었어요~미스틱그레이 색상 고급지고 예뻐요. 크기도 큰편이라 숫자판이 옆에 있는것도 마음에 들어요.삼성이니 AS도 걱정없고요. 가격대비 좋은상품같아요. 가성비 좋은상품 인정이요^^
+저희 아버지가 쓰실 노트북을 고르기 위해 많이 알아봤는데, 이 제품이 가성비와 서비스가 제일 괜찮은 것 같아서 구매하였습니다. 문서작업 많이 하시고 메일 쓰시고 기본적인 것 하시는데 혹시 모르니 as도 신경을 쓰다보니 삼성을 선택하였고 잘 한 것 같습니다. 배송은 빨랐고 제품도 정확하게 옵션에 맞게 왔습니다. 기본으로 스킨과 마우스를 주셨는데 그것도 참 쏠쏠하네요.^^ 감사합니다. 집에서 기본 컴퓨터로 쓰기 좋고 대학생 인강용이나 헤비하지 않은 사무용으로 좋습니다. 멀티창 띄워놔도 잘 돌아가네요. 아버지댁에 프린터기랑 같이 사서 설치 해드렸는데 완전 좋아하시더라구요.좋은 제품 저렴하게 잘 산 것 같습니다. 잘 쓰겠습니다. 번창하세요^^
+초등 딸 선물해줬어요. 그동안 태블릿으로만 써왔는데요즘 학교 수업이 전면 원격수업으로 진행되고 있고 그 외 다른 수업들도 다 줌 수업으로 하고 있어서 컴퓨터를 오래쓰게 되면서 필요성을 느끼게 되더라구요.다른 것들과 여러가지로 다 비교 하다가 그 중에서 성능도 가성비도 둘다 좋은 걸로 골랐어요. 생방송 라이브로 저렴하게 구매해서 좋네요~ 화질은 좀 아쉽지만... 이 가격에 다 바랄순 없겠죠~^^;; 잘 사용하겠습니다. 색상도 잘 고른것 같아요~ 아이가 쓸거라 더러워져도 티 안나는 그레이로 골랐는데 좋아요^^ 사진으로 확인하세요.동영상은 인터넷 들어가지는 속도 보시라고 올렸어요~ 저렴한 가격에 삼성노트북 넘 만족합니다. 좋은 상품 감사해요~^^
+개인 노트북 구매는 처음이라 서치중 바로 다음날 라방이라 잘보고 구매했습니다 아무래도 텍스트나 리뷰보다 구매결정에 큰 도움이 됐던거 같네요또 삼성은 as가 너무 좋으니까 믿고 결정했습니다배송은 구매 다음날 시작되서 정말 빨랐습니다구성품 너무 혜자스럽고 무엇보다 마음에 들었던 업그레이드도 확인할 수 있었구요 HDD조립은 아직입니다만 안내페이지에 잘 나와있어서 문제없을꺼 같네요노트북 화질을 실제보지 못해서 조금 걱정했습니다만 좋습니다^^ 그리고 발열이나 소음도 적습니다 비교군이 따로 없어도 아 이정도면 이라는 생각이 듭니다 저는 이제 막 뜯어보고 사용중이라 어설프지만 한달 후 리뷰는 또 다르겠지요 자주 손이 가는 애정템이 되길 바랍니다 그리고 다른분들 리뷰도 적극적이시라 서로 도움이 많이 되는거 같네요^^
+</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.902212917804718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150.8717253854043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K24AW</t>
+          <t>삼성전자 갤럭시북 프로 NT950XDY-A38A</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598000</v>
+        <v>1098000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://cr.shopping.naver.com/adcr.nhn?x=POlJ0vg0EtWx97iD7mb%2FPP%2F%2F%2Fw%3D%3DsdBfSWzsRXuOp0qCbBsxU4eVhvo6jTh9I555myJvwue8XtKWU5l2RZhzweonlysWaW6ztsbLE%2FOxK1xKvwAzSWAnoiSK7xdwyLkGlpEh5en9j%2BwdgPMOJcKhLRe13Hp82%2BdeT%2BPMqlqCU48dZoKdrmsv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK5MEXPXgyZR7qMwb%2BavaLKNjMLMF37IGTcafAkl8SUA2Ns2H4zHWoQIfujeLGeulExTOkjawsOxsl5BcK%2BEoPKWMjnQdnL9wtXZ1LI9BLQeEQhkkHXK4%2FmSRy5icYE%2F27BW36r4QZshREfg%2B3vq7RNvjLJiqw6xGb4qzRdxu6oQY6JIeyjRJJG8AQSjlBThBKwGzJzXPgq4NqvxAOjtnJwRoFP7p9U9LJLh2ZW9IhrooiNvEAyH7XT6ObGe95mRdUd3%2FGeyhUFwMFDpk0nKSQD9oiAmNwzw%2FscbWY0t0xNl%2BR%2FJZwKh8rCTewT95PlMIDFcuWJhrywhtUVcmTzlqLTxLPHBVE1X9hF6ZkrnPWwIQJwdzjwv7FgVpQm9DlgLn%2FM6Li3TO92ANTqqdTvDXxcMtVYavx%2B%2B8fWZa9SBc8rqM%3D&amp;nvMid=26760806522&amp;catId=50000151</t>
+          <t>https://adcr.naver.com/adcr?x=4glnmB3O21HnUdRyfEplx////w==kTp1GIyD0YSLEGeuNsC7cfhq/dNfIX+IKHDC1US3XwHnvWRnOh7+CdAxRYwEeLDrGnvt2ukQ588ww+WFPN5eNQeQJo3YtgoYPRIqdRl5j3I6K/trE1VVoTNwxU5a1TuOgp/a4i8pxxq7dkMUQz0GTWWFaQgNQ0yBMDiPdhVAjkqNnE97Btr7wRUW5HAisxu6xW7CL1ef8Ss3rlHWJTBzPDHFsw4iQwaA2Pq8U9iSYFIvd4tNLU+VXPggkiC88+VNj/Mq4SWnDPckwfh00SBsKU1Y/iF9JjVbf8Zsekidm7fELLkbo/tYo9sSOFtmLUSiPoOxTXRBX82rQOmwXqpKWOPl61v+VV0RjnQz9bNVJRLp3JKtoUIw+jV45TXJukX4FTuLcJdzMxthlgXTVdgrV8Exf5t8m9qnJDwdkNDhQeEAHLfBYCEhEIwtOjHODNXVtSaGRCA5OVgCBENdf3y8ku0f5FhuhYyWpu6sJOZR270BlBSFvPDuOzkFYKbDrPIyaft4CrrONUTC49oM16kB5wfJzlMDqg1UFLkng41dC0PfDtHezIxeJH8jK8CmvKv5K2luoLKDO8k4g3TD4v2b9vcgBqSNMJtF7ISLRl6H+jHG4H5NeRU3c1kyaBSEThwlWgpXhTvuw58KafeA6mxVPbqX/R4jqyRZ//qrHEwibMlbyNDL2I1hJzMri7tlSnHsSj3MPHra7LuRHoLiVsuvYfOgzYKbNPh4WnXB8NPOH+Q1PbXfx28O4mmK00KMoLeLMl2FoJo2mbCkMWA5Kbw7pSA==</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>확실히 화이트가 예쁘네요. 윈도우10이 기본으로 깔려있어서 좋아요. Ram이랑 ssd 추가하였는데 삼만원이면 정말 괜찮은 가격이라고 생각합니다. 노트북 한번 사면 최소 몇년 쓸텐데 가성비 너무 좋아요. 그리고 저가 노트북이라 솔직히 음질 기대 안했는데 소리도 깔끔하고 영화나 노래들을 때도 만족할만한 음질입니다! 한사랑씨앤씨👍</t>
-        </is>
+          <t xml:space="preserve">NT950XDY-A31AS 모델을 주문했습니다.기존에 쓰고 있던 맥북 프로가 고장나서 새롭게 구매하게 되었습니다.갤럭시북 프로의 디자인과 무게가 마음에 들어 주문하게 되었습니다. 첫째 디자인은 깔끔하게 딱 떨어지는 심플한 디자인과이 좋았습니다. 또한 15.6인치의 큰 화면이지만 1kg밖에 되지않아 실사용자들의 높은 니즈를 충족시킬 수 있습니다. 무게로 고민중인 여성분들에게 특히 장점이 될 수 있습니다. 둘째는 키보드 백라이트 기능이 생각보다 큰 장점이 됩니다. 야간 작업시에 유용하다는 실용적인 측면은 물론 빛이 이뻐서 외관적으로도 높은 만족감을 줄 수 있습니다.셋째, 램과 하드용량을 업그레이드했음에도 불구하고 주문당일 바로 발송되어 주문다음날에 도착했습니다.
+갤럭시북 프로(NT950XDY-A38A)를 구매했어요15시 이전에 주문을 하면 당일날 바로 출고를 해주셔서 다음날 안전하게 바로 받아볼 수 있는 점이 정말 좋은 것 같아요 박스상태도 안전하게 왔구요 안에 속포장도 폭폭이로 2번 감아서 와서 찍힘자국 없이 아주 안전하게 왔습니다.제품 외관은 역시 알루미늄으로 되어 있어서 그런 지 고급스러움이 물씬 나는 것은 당연하구요 외장재에 반해 생각보다 너무나도 가벼워서 매우 놀랐네요 켜보지 않고 사진을 찍을 때 검은 화면에 내 모습이 반사되어 찍히지 않는 것이 맥북을 많이 따라온 모습을 볼 수 있었고 유튜브에서 워낙 가독성에 대한 얘기가 많이 나와서 구매하면서도 걱정을 많이 했었습니다. 하지만 생각보다 엄청나게 글씨가 안 보인다 할 정도로 심각하지 않고 나름 괜찮게 보여서 좋은 것 같아요.Oled라 색 구현역은 뭐 말할 필요도 없네요캠퍼스 라이프를 위해서 제 첫 노트북으로 마침 세일도 많이 하고 사은품도 많이 주는 갤럭시북 프로를 골랐는데 아직까지 만족하면서 잘 쓰고 있습니다. 다음 한달 사용기때 봬요..!
+갤럭시북 프로(NT950XDY-A38A) 구매했습니다.이전 노트북이 맛이 가서 새로 사려고 검색해보다가 발견했습니다.처음 받았을 때 생각했던 것 보다 커서(15인치) 좀 놀랐는데, 역시 좋네요.프리도스 노트북은 처음이라 당황했지만 여차저차 윈도우 구매해서 깔았습니다.빠릿빠릿하게 잘 돌아가네요. 화면도 넓직하니 좋고, 영상도 잘 틀어집니다.색도 깔끔하고, 무엇보다 지문인식 버튼과 전원버튼이 합쳐져 있는 게 정말 편하네요. 특히 램, SSD 이벤트는 정말 최곱니다. 가격도 가벼운 노트북 치곤 합리적이고, 삼성이라서 as문제가 없다는 것이 큰 장점인 것 같네요.강력추천합니다. 잘 사용하겠습니다.
+이번에 여자친구 인강용으로 노트북을 알아보다 그*과 갤럭시북중에서 정말 고민하다가 결국 코인비엠에스에서 해주는 무상 업그래이드 때문에NT950XDY-A38A를 구매하게 되었습니다. 1차로 빠른 배송에 감동했습니다. 2차로 생각보다 너무나 가벼워서 깜짝 놀랐구요 3차로 역시 아몰레드 화면 특유의 쨍한 화면이 좋더군요(호불호가 있을듯)현재 윈도우 설치 완료 후 기본적인 오피스 프로그램 설치하고갤럭시 버즈2 연결하였습니다. 혼자서 인강듣기에 딱인 제품 같습니다. 추가로 램과 SSD 업그래이드는 진짜 신의 한 수 였습니다. 아주 만족합니다.
+일상생활에서 쓸 수 있는 가벼운 노트북을 찾는 중에 갤럭시 북 프로를 찾았고 마침 이벤트 기간이라 용량도 두배로 받을 수 있기에 고민 없이 바로 질렀습니다! 우선 여성이 들고다닐 수 있을 만큼 가볍고 화면도 커요.. 매우매우 만족합니다. 저는 자세히 알아보지 않아서 윈도우 10을 설치해서 받는 걸로 선택을 안해서 설치하고 노트북을 실행하기까지 조금 많은 어려움이 있긴 했지만 이 리뷰를 보시는 다른 분들은 저같은 실수를 하지 않으시길 ㅠㅜ 컴퓨터에 대해 잘 알고 혼자서 충분히 이러한 것들을 설치하고 깔 수 있다 하시는 분은 윈도우 10 설치를 선택 안하셔도 될 것 같아요. 키패드 느낌도 너무 좋고 하얀 색상이라 벌써 바닥에는 제 책상이 더러워서 거뭇거뭇한게 묻어나긴 하는데 역시나 예뻐요. 추가적으로 사용해봐야 어떤지 더 알수있겠지만 우선 처음 사용은 매우 만족입니다! 싸게 잘 산것 같고 유용하게 사용할 수 있을 것 같아요. 참고로 윈도우 탑제 안하고 구매하시는 분들 제대로 설치 하기 전까진 키패드가 안먹으니깐 무선 마우스 준비해두세요..!
+배송도 빠르고 사은품 버즈프로도 견고한 박스포장르로 잘 도착했습니다. 상담원분이 체험단문의 관련도 정확히 안내해주셨습니다.제품은 정말 가볍고 군더더기가 없네요.그램써오다가 이번 가볍고북프로는 넘 디자인도 예쁘네요.육아휴직후 카폐에서 돌아다니면서 블러그나 넷플릭스 시청 위주로 사용할려고 가볍고 화질이 좋은 oled 제품의 겔럭시북프로가 제일 안성 맞춤 이더라구요넷플릭스 화면이 엄 쨍하고 보기 좋네요.화질은 어떤노트북에 비해 넘사벽같습니다.노트북선택기준에서 화면 ntsc 밝기는 성능 무게보다 요세 더 많이 선호선택사항인데 끝판왕입니다.키배열도 사무용이나 엑셀 파워포인트 할때 좋고 키감도 좋내요. 다만 아쉬운건 키보드 투명패드가 기본구성이 없어 아쉬우분이 있네요
+NT950XDY-A31AS 구매했습니다무료 업그레이드 행사 덕분에 좋은 가격에 구매한거 같습니다노트북 사려고 오프라인 매장도 둘러봤는데 제가 원하는게 없어서 고민했어요 가벼우면서 화면도 너무 작지 않고 usb 코드도 되면서 가격도 적당한 걸 찾다보니 선택이 어렵더라구요제 용도에는 딱 적당한 노트북인거 같습니다그리고 원래 쓰던 이전 노트북보다 처리 속도가 빠른거 같고 가벼워서 휴대성이 좋아졌습니다어두운 곳에서 켜면 키보드가 보라색으로 불이 들어와서 이뻐요앞으로 잔고장 없이 잘 쓰면 좋겠습니다단점은 디스플레이가 눈이 시리게 아픕니다 왜인지 모르겠어요ㅠ 어쩔수없이 화면 밝기를 최저로 하고 사용할까 하는데 컴퓨터 작업을 오래 하기엔 무리가 있을거 같습니다그리고 배송서비스가 조금 미흡해보입니다 전자제품인데 완충재없이 박스포장 한겹 되어 있는데 그마저도 다 찌그러져서 왔습니다 그리고 주문시 예상도착시간보다 하루 더 늦게 도착하였는데 일정 타이트하게 주문하지마시고 기간 넉넉히 생각하고 주문하시면 되겠어요
+모델명 : 갤럭시북 프로 NT950XDY-A31AS 2학기가 시작되면서 세자녀가 노트북 2대로 번갈아 사용하는데 불편함을 느껴 더이상 노트북 구입을 미룰수가 없더군요.이왕 사는거 좋은제품 사고 싶은 마음에 오프라인과 온라인 여기저기 기웃거려도 역시 부담스러운 가격에 고개가 저절로 숙여지던 중~만족스러운 사양에 가성비까지 좋은 삼성노트북을 접하게 되었습니다. 겉으로 느껴지는 가벼운 무게, 넉넉한 화면사이즈, 깔끔한 디자인, 깨끗한 화질뿐만 아니라11세대 인텔 Core CPU, 16M메모리용량. 대용량 배터리, 넓은터치패드, 지문인식센서, 178도의 광시야각 등등 많은 기능들이 탑재되어 있는 제품입니다.게다가, 착한가격까지 겸비해주고, 추가로 다양한 행사진행으로 고객만족도에 신경을 써주니 여러모로 좋네요.그리고, 안전한 배송을 고려해서 제품포장에 각별한 신경을 써주신 점과 빠른배송에 매우 만족스럽습니다.
+삼성 갤럭시북 프로 NT950XDY-A38A 가볍고 속도, 충전도 빠르고 예뻐요.손에 가볍게 들고 다니기 정말 좋아요.원도우가 설치 되어 있지 않아 초보인 저에게는 조금 어려워 인터넷 검색하며 설치하는데 시간이 많이 걸렸어요.  Usb드라이브 셋팅과 윈도우 설치 후 설치 장치 및 인터넷 연결이 되지 않아 엄청 힘들게 했는데 나중에 보니 드라이브에 저장해 주신것 있지요. 종이에 설명서가 있으면 저 같은 초보들이 긴장하지 않을 것 같아요. 가볍고 예쁜 노트북 저렴히 구입했기에 딸이 잘 사용해 주길바래요 ㅎㅎNT950XDY-A31AS 정말 최고예요~~~~노트북 고민하시는 분 망설이지 말고 꼭 구매하세요가볍고 속도도 빠르고 업그레이드에 대대대만족해요. 업그레이드 행사 끝나기전 꼭 구매해요. 정말 좋아요 5~6년동안 잘 사용할 수 있을 것 같아요. 정말 감사해요^^
+NT950XDY-A38A 와이프 선물로 구입했어요. 주문하고 바로 다음날 받아볼수있어서 좋았구요. 생각보다 탄탄하게 보이고 화면도 밝고 선명합니다. 충전기는 c타입인데 기존 노트북충전기랑 비교가 안되게 작게 나와서 이동시 좋을듯합니다. 초기설치시 usb로 설치하려면 마우스를 쓸수없어서 탭키로 이동하고 엔터키로 넘어가야해서 어려울수 있을텐데 잘넘어갔구요. 설치이후 삼성홈페이지에서 드라이버 다운받을필요없이 파티션에 찾아보면 드라이버가 들어있어서 바로 설치할수있었어요. 설치하면 드라이버 자동으로 잡힙니다. 256ssd로 샀기때문에 마이크로sd 512를 따로 주문해서 꼽아줬는데 ㅜㅜ 이게 들어가긴하는데 나오지는 않네요. 인식도 되긴하지만 이부분 불량인거 같아서 as받으려 합니다. ㅜㅜ 어쩔수없죠. ㅎㅎ ㅜㅜ
+16GB(NT950XDY-A31AS) 모델로 구매했습니다. 가볍게 인강, 블로그, 한글사용 목적이었고 가볍고 저렴한 모델로 찾다가 이 제품을 발견하게 되었습니다. 제품 받고 속도와 무게에 많이 놀랐습니다. 이 정도 크기에 무게라니 !! 속도도 엄청나게 빠릅니다 !!!실버색도 실물로 보면 엄청나게 예쁩니다!!목요일 밤에 구매했는데 토요일 오전에 도착했습니다 !총알배송 너무 감사합니다!윈도우10를 추가로 구매했는데 정품이라고 써있으니 믿을만했고받고 바로 사용할 수 있어서 너무 좋았습니다. 추가로 구매한 전용보호필름, 키스킨도 넘 좋습니다 !!!저는 너무 만족합니다 !!!깔끔한 디자인, 가벼운 모델 원하시는 분들이라면 강추합니다! 빠른 배송원하시면 여기서 주문하세요!!
+NT950XDY-A38A  갤럭시북첫째아이 인강수업용으로 선물했네요계획은 내년 고등학교 입학선물로 하려하였으나 지금 많이  쓰겠다 싶어 (현재 노후된 예전에 제가 쓰던 노트북 사용하고 있었네요)사양도 괜찮고 구매평도 좋아 구매했습니다바로 다음날 빠르게 배송되었구요박스포장채 들어도엄청 가벼웠습니다 뽁뽁이로 안전하게 배송되었구요윈도우 설치 참 친절하게 나와있어 초보자인제가 설치해도 참 쉬웟다고 쓰고 싶지만맘데로 되지 않았네요 ㅜㅜ설치된걸 구입할걸 하는 후회도 했지만끝까지 설치 했네요디자인도 심플하고 기존 쓰던 노트북이랑비교하면 훨씬 빠르고 가볍고 아이가 좋아해서너무 좋습니다
+갤럭시북 프로 NT950XDY-A38A 정말 좋네요ㅎㅎ전 첨에 15인치대 노트북이라크기와 무게가 어느정도는 나가겠지 생각했는데무게가 1키로에 엄청 얇아서 깜짝놀랬어요ㅎㅎ거기다 이벤트 행사로메모리업그레이드에 ssd256추가까지 무료라니 정말 대박입니다ㅎㅎ속도 빠르고 충전빠르고 화질좋구키보드 키감 좋구키보드라이트에디자인이쁘고ㅎㅎ장말 삼성에서 대박쳤네요거기다 착한 가격까지무조건 강추합니다단 윈도우는 직접 설치해야하는데이것또한 어려운 작업은 아니라하드안에 드라이버 자동설치 프로그램이있어 손쉽게 설치했습니다잘쓰겠습니다ㅎㅎ[16GB무상업/12개월 무이자] 삼성전자 갤럭시북 프로 NT950XDY-A38A 가벼운 인강용 사무용 노트북출처 : 스마트스토어 &amp;gt; 삼성공식파트너 코인비엠에스 | 네이버 스마트스토어
+갤럭시북 프로 NT950XDY-A38A 구매했습니다.노트북이 고장나서 어떤걸로 살까 고민하다 가볍고 편한 노트북으로 결정했습니다. 요즘엔 집에서만 쓰는게 아니라서 어디든 가지고 다닐수 있게 가벼운걸로 찾고있었는데 정말 가볍고 가성비도 좋습니다.프리도스라 윈도우10 같이 구매해서 오자마자 바로 사용할수 있어 편하고 메모리 업그레이드, ssd256추가도 해주셔서 정말 만족합니다c타입 충전도 맘에들구요, 배송도 안전하게 잘왔습니다정말 좋은상품 추합천니다!!
+갤러시북 프로 (NT950XDY-A38A) 구매했습니다.드디어 아버님께서 10년동안 쓰신 삼성 아티브북9을 바꿔드렸습니다.빨리 배송되었으며 15인치인데도 매우 가볍고 무엇보다 색깔이 영롱합니다.15인치라서 화면도 크고 출장다니시는데 아버님이 잘 쓰실 수 있을거라 생각해요. 생신선물로 아주 좋아하실 것 같습니다.
+NT950XDY-A38A를 구매했는데 업그레이드되서 50명 한정 NT950XDY-A31AS로 받았네요 재질이나 뒷면 사진이없어서 궁금하실까봐 올립니다 두꺼운 게이밍 노트북만 쓰다가 침대에서 간편하게 사용할 태블릿이나 노트북을 사려고 고민을 많이 했는데 갤럭시북이 사양도 좋고 가볍기도하고 태블릿가격이 워낙 비싸서 그돈이면 노트 북을 사서 좀더 다양하게 써보자 해서 선택했어요 정말 가벼워서 책한권 얇은거 든것 같구요 아몰레드라 화질이 좋아서 옆으로 누워서 영화보기 정말 좋아요 지문인식센서도 빨라서 폰인식보다 너무 잘되서 1초만에 잠금해제되고 핸드폰하고 연동되서 핸드폰앱도 컴퓨터로 컨트롤 할 수 있어서 좋습니다 윈도우설치도 10분~15분 정말 빨리 설치되고 설치후에 내컴퓨터 들어가보면 드라이브 뜨는것에 삼성드라이버 프로그램있어요 그거 눌러서 들어가시면 자동으로 드라이브 잡히네요그런점에서 역시 다른 브랜드보다 삼성이 잘 되어있더라구요 노트북은 한번사면 오래 사용해야해서 많이 고민하고 비교하고 구매했는데 잘쓸것같아 대만족입니다 가볍고 편하게 업무나 고화질 영화 감상하시려면 딱인듯합니다
+기존에 사용하던 노트북이 너무 오래되어 성능이 저하되고 코로나때문에 동영상수업때문에 고민하던차에 이번에 새로 출시되는 갤럭시북프로를 선택했는데 사용하던것과는 차원이 다르네요. 보다 작고 슬림해서 가벼워 휴대성최고입니다. 심플하면서 깔끔한 디자인 너무 맘에 들어요.컴퓨터 잘 몰라 윈도우10 설치까지 신청했는데 바로 사용할 수 있어서 편하네요.오래된 노트북에서 벗어나니 신세계네요..사전예약구매로 버즈프로까지 완전 좋아요..
+노트북을 구매하려고 몇 일을 고민을 하다가 고른 제품입니다. 이것 저것 고민을 많이 했는데, 제가 게임보다는 동영상 시청과 가끔 사무용으로 쓸려는 용도로 사는 것이라 용도에 맞는 제품을 사는 것이 맞지 싶어서 무게도 가볍고 화면도 AMOLED이고 해서 구매했습니다. 램도 업그레이드 해주고 좋네요.
+딸에게 사주려고 어떤것을 사줘야 하나 이것도 저것도 다 비슷해서 고민을 많이 했는데 결국엔 NT950XDY-A38A를 구입했습니다. 사양도 괜찮고 무엇보다 가벼워서 옮겨 다니면서 공부하기 편하다 하고  화질도 좋고 사양도 괜찮고 무엇보다 가벼워서 옮겨다니면서 공부하기 편하다 하고  화질도 좋고 휴대폰으로 간편하게 연동할 수 있어서 좋다네요. 예뻐서 좋아요. 오래 쓸 것 같네요^^
+너무 좋은 제품을 저렴한 가격에 사서 행복합니다. 사무용으로 사용하기에 최적화된 노트북 입니다.  그리고 업그레이드  행사로 성능업  여러가지 만족합니다.  또한 매우 빠른 배송 안전한  포장 매우 만족하며 마지막으로 믿고 사용하는 삼성제품과 as  등 잘 구매한것 같네요
+</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9963403940200806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90.74138379053556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북 프로 NT950XDY-A38A</t>
+          <t>삼성전자 갤럭시북 NT750XDZ-A71A</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1098000</v>
+        <v>1298000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=MV5J9XUhREM4yX1az43xJf///w==kbB1b7JYwGFCWvA8NjXKRVqv68CfbnSh5VxqvqSsM9oO1LItSqyrrD2gKxHPfY+3utXi4K1n4/wtlfSNsdOXNagNm8bWpvM+4djca/xNe9sPcvEl2WWHKjPHxplcASrPL/55ecINIh3zLV7X7JCXNniU5j+kqb0Gk86wfTZbfdB2c+PCGDSzYOx6SWRmOR4Z3DxsDFHEZDLwEKZ5abRb5DXio8j1DUzxqiFkge586702tITWgKeIW7y2VIRZmNq5KlIHYPcKPJE4VYZklVzRB4aZ5IqaJksMb2ZJWDDjPiEwrn2NxgPUENq/+Ks0/WXdYAu9qmvKKbKta/YU9MpAN9riy5vZ7JsWlaP3nFRxceRQYFiNDdTg1kifb1JojjbqdXPDObBMro7S0wsZGBv6PXdWIezJAZIq7iyO1IIqlj8amDcbNfwZPSL9fhMzV+eagzg5Cr9gtYK5G6LWzKjFMIjkTema+7yJF4GrQfvdVGON5mUfIcWpQCi7UF3+2kNKRNpl11Bo8AC3XTdcykQ95H2yFJS2YzpmCaKwEe5Jg3bDL5VOQJhfOiNjAomKWhSgn/E6IaXGKQoYEGuBTTNh1rXFvQIYf9Tn2Wtdf9oYswmp8NXwIG93/eX/LbhXUdYyuepZApVmotNR0hi4OkMmGYF5biuAomVBnNFRufJ9hWijPmSJCpcSlEB35rqAe6BPAGE2Abn7tTFuNsWLAx8zBJ+810cGhGwkHj5VV2dlfVMDkVkSdlF3BKJBVfxH1y+VZ/+EI3PHoppfBHvqD3IWyrw==</t>
+          <t>https://adcr.naver.com/adcr?x=Zr2DfhL/jn9Q0pv0l37IWv///w==kTp1GIyD0YSLEGeuNsC7cftFE9IIGQjTF5PV4FaypqJgrB1w1a2iJjSEbD4K6cPzqkrLVhwNR+GH1iz5mVgwJpNpvA2Kz+YfUdzM4qPSX/16K/trE1VVoTNwxU5a1TuOgTwf1fc264p6kz3SRFN4rMknmS6cDT1ZQK0pRhlW60cCMTWCuZPeD2VdpScwJlpVrB9MB0P+qDTKuQqCZ1lNlWhiABPv1qzVciL2JSN84wtaFrdS/3Pk0A0WkR47iFy4mq5zU3t0KJC1K1LmD3j/NpaK6Z5GZQhkXZYFBMOUw4qNLOXQooMqNTnzgN7r8J4FqeVuK93A1t0kjd9+cB9jcIqmVMgIFRhQAdkJq6QtcYpNhebXnJtmuDqOrhSfolE2mGSULnS4CcXsAjHC87Fb7xnheJ1YBygDNzi8xu/J12QPk57UndaxQe1tII1iJ7pJYT/Yii6Uv3F/91AJWF/f3eS5QE/7fxUKXBcvW8TD7oYabouE68p6O4uZzCWroebOsjnA/BeSgvXvqp9joRhrhL3mSok3IVAseRaiNaz6omYtt4rkP7UWZ/dkzP7D6+y3eTycNLvok/7wLAoQMmhFjvnufQYUgc8UzfZNBrQ5gNkQXMDrfIWZUQEk7xNjPV1dvY4ttbJQcuFK5jcOGH16eNksA0qrEs0AlnCSjY61ximKXon2kLTx+cvCB5chkXUxb2CnUv/lsKlvGkOfqFyhqH16pGNzNg2NE6yoiNWD7uOsY+lR6xNLSVhuOK/+PcnYsijQGu6bV2bzLz7jOLZPA0w==</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>매장에서 찜해두고  여기가 가격이 싸서 구입했네요..혹시나 인터넷 구입이 걱정스러웠는데  받고 보니 괜한걱정 한듯하네요..만족스럽고 좋아요..16GB 무료업그레이드도 잘되서 왔네요..손목이 아파서 젤가벼운거  샀더니 아주 좋네요..</t>
-        </is>
+          <t xml:space="preserve">아버님 생신선물로 노트북이 필요하다 하셔서 어떤걸 사드려야 좋을지 고민하고 있었네요.그래서 결정한 모델이 삼성전자 갤럭시북 NT750XDZ-A71A 이었습니다~ 문제는 어디서 살지 었는데 오프라인보다 혜택이 더 좋은거 같아서 코인비엠에스는 삼성공식파트너라고 하니 믿고 구매했습니다. 주말에 주문했는데 월요일에 바로 배송해서 금방 도착했습니다. i5 CPU를 사용하는 모델도 대중적이지만, 착한 가격에 i7 11세대 CPU를 장착한 모델을 발견하여 주문했네요. 이 가격에 i7 구매 했다고 하니 주변에서 완전 가성비 좋다고 칭찬해줬어요~주요 구성품은 심플하게 노트북 본체, 충전기(고속충전이 가능한 C-TYPE 단자를 사용), 그리고 유선마우스가 기본동봉으로 구성되어있습니다.컬러는 미스틱블루로 시원한 느낌을 주고, 화면 사이즈도 적당하며 무엇보다도 i7 CPU가 장착되어있다는 스티커가 아주 마음에 듭니다. 착한 이벤트로 기본 용량 512GB에 추가로 +256GB SSD를 업그레이드 해주어 넉넉한 용량으로 사용이 가능하겠어요. 램은 16GB를 장착하여 서류업무, 줌 회의, 프레젠테이션 업무에 무리가 없으며 기대하지 않았지만 무게도 생각보다 가벼워 휴대성도 용이합니다.구매한 제품은 윈도우가 탑재되지 않은 리눅스 제품인데요, 따로 구매한 윈도우10 시리얼키를 사용하여 간단하게 부팅USB를 만든 후 설치하기까지 30분이 채 걸리지 않았습니다. 윈도우10 설치 후에 펑션키 기능 미작동, 마우스(기본탑재 마우스패드), 소리 안나옴, 인터넷 연결 불가 등 문제로 기계적 결함인지 잠시 당황하였지만 삼성제공 세팅 프로그램 하나 돌려보니 순식간에 설치되고 모든 기능이 정상적으로 작동했네요.. ^^ 사실 리눅스 제품이라 해서 걱정 많이 했는데, 이정도는 쉽네 라고 넘어갈 정도였어요.좋은 가격에 준수한 성능의 노트북을 구매하게되어 만족합니다. 1달 정도 사용해보고 후기 리뷰를 작성할까 합니다. 빨리 포장해서 드릴 생각하니 벌써부터 신납니다! 좋아하실 거 생각하니 기분이 좋아요 😀
+기존에 사용하던 노트북이 7년차가 되자 사용이 힘들만큼 속도가 느려져 고민고민하다 새로 장만하게 되었어요. 누구에게는 부담스럽지 않은 금액일 수도 있지만 아이 키우며 살림 하면서 100만원이 넘는 돈을 선뜻 사용 한다는게 결코 쉽지 않았죠. 그만큼 여기저기 많이 알아보고 성능이나 만족도 면에서 많은 검색을 했더랬죠.그리고 선택하게 된 삼성 갤러시북 NT750XDZ-A71A 인터넷 검색과 동영상 시청, 한글 문서작성과 엑셀, 파워포인트, 간단한 포토샵을 사용하기에 부족함 없는 성능과 적당한 가격에 망설임 없이 구입했어요. 쿠폰과 카드할인을 통해 할인도 많이 받아서 더욱 더 만족합니다. 구매 후 이틀만에 배송이 되었고 어렵지 않게 윈도우도 설치를 했어요. 설치 드라이브도 F드라이브에 따로 다 들어가 있어서 SETUP만 하면 자동설치 되어 너무 간편하네요.제게 필요한 각종 프로그램 설치후 구동해보니 속도가 너무 빠르고 해상도나 음량 등 무엇 하나 빠지는게 없어 완전 만족해요. 구입전에 조금 더 저렴한 제품으로 살까 고민도 많았지만 한번 구입하면 5년이상 사용하는 제품이기에 조금 더 좋은 성능의 노트북으로 구입했는데 12개월 무이자라 부담도 확 줄었네요.주변에 노트북으로 고민하고 계시다면 아낌없이 추천 드립니다.
+이번에 퇴사를 하고 신규사업을 시작하면서 필요하게된 노트북으로 NT750XDZ-A71AU 모델을 구매하게 되었습니다.실제제품을 만져보고싶어 집근처 디지털프라자에 갔으나 i5모델만 있어서 아쉽게 보고 오지는 못했습니다.이제품을 선정하게 된 이유는 인텔11세대 i7 CPU를 장착한 최신형 모델이며 512g ssd적용으로 빠른속도로 이용이 가능하고 슬림베젤과 컴팩트한 사이즈로휴대성이 간편해서 였습니다.더불어 180도로 접히는 힌지는 다수와의 회의및 작업시 상당한 메리트로 다가왔구요.기존에 사용하던 NT551XDA 모델보다 스펙상 상위모델이며 삼성공식파트너인 코인비엠에스의 특별한 할인을 통해 실구매가 110만원대라는 매력적인 가격으로 구매할 수 있어 좋았습니다.돌비atoms 지원으로 포맷을 지원하는 영상이라면 한층 더 깊은 소리로 멀티미디어,사업,인강,게임등등다방면에 있어 상당히 만족스러운 가동력을 보여주는 것 같아 마음에 듭니다.기왕에 5년이상 쓸 노트북이라면 NT750XDZ-A71AU 이모델 추천드립니다.삼성 정품 구매는 꼭 공식파트너사를 통해서구입하시는 것이 가장 좋습니다.제사업도 코인비엠에스의 사업도 더욱 번창하기를기원합니다.
+7년동안 쓰던 노트북이 점점 느려지고, 새로운 노트북을 구매하여야겠다는 생각을 하게되었습니다.평소 노트북, 컴퓨터에대해선 아는게 많이 없어 인터넷 검색을 시작했고, 동네 매장들을 방문하여 많은모델들을 살펴보았습니다.​다양한 노트북들을 추천받았으나, 초보자들에게도 사용하기 편하고 추후 문제가 생겨도 가장 서비스 받기 쉬운 역시 삼성 제품을 고르게 되더라구요!​역시 믿고쓰는 삼성... 갤럭시..! 최근들어 갤럭시북이 핫하다는건 들었으나 사양을 봤을때도 너무나도 만족스러웠습니다!굉장히 깔끔한 디자인에 마음에 드는색상, 그리고 가격마저도 너무나 합리적이어서 고민없이 바로 구매를 결정하게 되었습니다!​윈도우설치를 추가하였더니 윈도우까지 설치하여 보내주어서 불편함 없이 사용이 가능했고, 역시 노트북속도가 너무나도 빨라서 마음에 들었습니다!​앞으로 재택근무 및 문서작업하는데 전혀 무리없을 것 같아 만족도 최상입니다!!​좋은 제품 저렴하게 구매할 수 있어서 좋네요!!
+기존에 사용하던 노트북이 고장이 나서 이번에 새로이 장만하게 됐습니다. 시중에 판매하고 있는 여러 브랜드들의 제품이 있었지만, 최종적으로 삼성 갤럭시북 NT750XDZ-A714로 결정하는데 있어서 작용한 몇 가지 구매 포인트를 적어보려고 합니다. 첫 번째, 노트북의 무게!! 기존에 쓰던 노트북 역시 삼성이었는데 노트북 본체에 전원 코드 가방까지 하면 3kg가 넘어서, 이번에는 가벼운 걸로 사자 했습니다. 뭐 거의 대부분 가볍더라구요 ㅎㅎ두 번째, 항상 화이트 색상의 노트북만 구매한 저로써는 화이트의 유혹을 뿌리칠 수 없었습니다. 타사와 삼성의 다른 화이트 색상 모델과 비교해 본 결과 화이트 색상은 예쁘지만 성능이 좀 떨어지더라구요. 비싼 돈 주고 사는데 성능이 떨어지면 또 왠지 손해인 거 같아서, 이번에는 성능을 우선으로 선택했습니다. 화이트 색상을 포기한 점에 후회가 들지 않을 만큼 미스틱 블루 예쁘고 고급집니다.세 번째, 삼성의 리커버리 시스템은 여성이 다루기에도 어렵지 않습니다. 남자친구 남편 없이도 혼자 뚝딱 할 수 있는 리커버리 시스템 짱입니다.
+업무 특성상 이동이 잦아서 외부에서 쓸 노트북을 고르고 있었는데, 여러 노트북을 비교해 보던 중 가성비 좋은 갤럭시북 NT750XDZ-A71AU를 발견하게 되었네요. 전자제품 잘 아는 직장 동료도 괜찮은 제품같아 보인다고 하길래 고민 없이 바로 구매했습니다. 토요일에 주문해서 오늘(화요일) 받았고, 윈도우 설치 후 반나절 사용 해 봤는데 아주 만족스럽습니다.^^ 발열, 소음도 제 기준에서는 무시할 정도로 적은 편이고, 색상도 아주 마음에 들어요. SSD 추가해주셔서 용량도 넉넉하구요. 그리고 초기 세팅 단계에서 혹시 저같은 상황 겪으시는분 있을까봐 적습니다~ 처음에 윈도우10 설치 usb 인식이 안 돼서 당황했는데, 인터넷 검색해보고 rufus 이용해서 다른 usb에 UEIF로 만들어주니까 되더라구요. 내장되어있는 삼성 소프트웨어 설치 프로그램 돌리니까 초기 세팅도 금방 끝났습니다.
+언론사 기자이고 업무에 적합한 노트북을 찾다가 삼성전자 갤럭시북 NT750XDZ-A71A을 구입하게 됐습니다.전자기기를 잘 모르는 사람 입장에서 리뷰를 적어볼까합니다.외관이 굉장히 깔끔하고 군더더기 없습니다. 색상도 유니크합니다. 문서 작업 하려고 노트북 앞에 두고 앉으면 이상하게도 딴 생각 안들고 집중하게 됩니다. 디자인이 한 몫 하는 것 같습니다.부팅과 인터넷 속도가 빠릅니다. 버벅거리는 것이 전혀 없습니다.윈도우 미탑재 제품이긴 하지만 USB디스크만 있으면 윈도우 설치도 굉장히 간편합니다. 윈도우 설치 초심자였지만 판매자분께서 필요한 가이드를 잘 안내해주셔서 문제없이 잘 설치했습니다. 그밖에 노트북 사용하는데 필요한 드라이버들은 E드라이버에 동봉(?)돼 있어서 설치 버튼 하나만 누르니 인터넷 드라이버를 포함한 모든 것들이 설치됐습니다. (이것은 윈도우10이기에 간편해진 것이라고 들었습니다.) 한글이나 포토샵 등 필요한 소프트웨어만 설치하면 원래 사용하던 노트북럼 편안하게 쓸 수 있을 것 같습니다.
+컴알못이긴 한데 업무용으로 몇년 쓰던 기존 노트북이 수명에 한계가 온 것같아서 이것저것 알아보다가 구매했습니다. 업무용이 주목적이지만 게임도 조금씩 할 용도로 램16GB이상 하드512GB이상 i5이상 1.7kg이하 스펙중에 80~120만원내에서 열심히 찾던 중 게이밍용은 너무 무거운 것 같고 해서 한 4일 고민하다가 갤럭시북 NT750XDZ-A71A 으로 구매했어요 기존에 사용하던건 옛날제품이라 두껍고 2.28kg로 더 무거웠는데 이 제품은 무게도 더 가볍고 디자인도 고급스럽고 마음에 듭니다. 게임 원신 돌려봤는데 폰으로 할 때보다 더 잘 돌아가고 렉도 없어요
+원래 쓰던 노트북이 일년전 고장나서 노트북 없이 살다가 고민끝에 삼성전자 갤럭시북 NT750XDZ-A71A 15인치를 샀습니다. 이 가격대에 이 성능을 삼성에서 찾다니!! 너무 좋네요. 장점은 다음과 같습니다.1. 속도가 빠르고, 소음도 별로 없습니다.2. FHD라 화면이 선명하네요. 그리고 베젤이 얇아서 화면이 더 커보입니다.3. 15.6인치 치고는 1.5kg으로 무게도 많이 무겁지 않은편입니다. 4. 삼성이니 AS가 편합니다. 집근처에 삼성 서비스 센터가 있어서 더 마음이 갔습니다.5. 인텔I7 11세대, 램16GB, SSD 512GB로 흐뭇한 스펙이네요. 요즘 라이젠이 대세라지만.. 그래도 인텔 I7 11세대는 최신성능이고, 고사양 컴퓨터입니다. 그리고 SSD가 512GB이고 더 필요하면 늘릴 수 있다는점이 마음에 듭니다.6. 디자인 아주 심플하고, 네이비색이 스마트해 보입니다.  편하고 소리가 작게 들립니다. 숫자키가 옆에도 있어서 숫자 칠 때 편하고, 타자치는 느낌도 좋네요.7. 충전기가  USB-C 타입이고, 무게가 가벼워서 들고다니기 편합니다.단점 이라기보다는 아쉬운점은 다음과 같습니다.1. 충전기 선이 짧은편이다.기본적으로 제공되는 충전기선이 조금 짧은편입니다. 노트북을 사용할때 근처에 콘센트가 있으면 상관없겠지만 멀리있으면 멀티탭이 필요할 것 같습니다.2. 발열이 좀 있습니다.심하지는 않고 열이 좀 올랐구나.. 싶은정도인데 이건 제가 받자말자 프로그램 이것저것 깔아서 그럴 수도 있습니다. 사용하는데 불편하진 않아요.3. 전원버튼이 네모 검정색이라 눈에 잘 안보이네요. 처음에 전원 버튼을 못찾아서 유심히 보다가 오른쪽 제일위에 네모 검정색 보고 눌러보니 켜졌습니다. 익숙해지면 상관없는데 저에겐 동그라미에(○) 세로 작대기(|)가있는 전원 기호가 익숙해서 본능적으로 그렇게 생긴 기호를 찾고 있었네요..ㅎㅎ길게 적었지만 사실 특별히 큰 단점은 아직까지는 잘 모르겠습니다. 지금까지는 아주 만족합니다.
+모델명: NT750XDZ-A71AU (미스틱블루)-  색상: 화면이랑 똑같습니다. 확실히 삼성이 블루계열 색상 잘뽑아요 :) 그리고 메탈로 되어있어서 세상 고급져보입니다-  무게: 적당해요. 매일매일 가지고다니기엔 약간 무리가 있을 것 같긴한데, 그게 아니라면 괜찮습니다! 무엇보다 충전기 무게가 휴대폰충전기정도여서 굉장히 괜찮아요 :D- 포트: USB-A,C 다 들어있는게 너무 좋아요ㅠㅠ 그 외에도 포트가 다양한데 평소에 자주 쓰는것들이라 마음에 드네요 ᴗ̈- 디스플레이: 컴알못이 봐도 화질이 깔끔한게 느껴집니다!! 기본적인 색보정같은거는 전혀 무리없이 가능할거같네요. - 발열: 흠.. 나쁘진않지만 무거운프로그램 돌릴땐 꽤 있네요.- 카메라: 화질 괘아나요. 무난무난.. 낫배드배송도 빨리오고 포장도 꼼꼼히 해서 와서 마음에 들었어요 :) 용량도 늘리고 윈도우 설치도 추가해서 가격이 조금 나왔긴 하지만, 이정도 스팩에 그정도 가격이면 꽤 가성비제품이라 생각합니다. 중저가형 노트북을 살까 고민도 했는데, 노트북은 자주 바꾸는 기기는 아니니까 a/s 잘 되는 곳으로 찾다가 이 노트북을 발견했어요 :) 디자인과 가성비 고려했을때 꽤 잘 산 것 같아요ᴗ̈
+초등학생 아이 온라인 학습용 노트북을 알아보다가 삼성전자 갤럭시북 NT750XDZ-A71A 으로 최종 결정하였습니다. 대기업 제품으로 이만한 가성비면 잘 선택했다고 볼 수 있겠네요.  현재 직장에서 사용하는 업무용 노트북과 똑같이 생긴걸보니 요즘 삼성 디자인은 대부분 비슷한 듯 합니다.깔끔한 외관에 180도까지 펴지는 힌지, 정말 가벼워서 놀란 충전 아답터, 갤럭시 제품들과 스마트한 연결이 장점입니다. 다만 보급형으로 키보드 백라이트가 없으며, 약간 허접해 보이는 전원버튼은 단점인것 같습니다. 랜포트도 없으니 필요시 젠더를 미리 준비하는게 좋겠네요.  아직 사용전이라 성능은 모르겠지만 삼성제품이니 말안해도 되겠지요. 10년 쓸 생각으로 구입했습니다ㅎㅎ 아이들 인강용으로는 넘치는 성능이라 생각됩니다.
+10년 사용한 타사 노트북.. 부팅시간도, 실행시간도, 메모리도^^;; 부족한 것 투성이었답니다. 교사인 저는 늘 원격수업 준비에 지쳐가고, 초등학생인 아이들 또한 원격수업 시간이 될 때마다 느리고 느린 컴퓨터에 지쳐 있었습니다.새로운 노트북 구입을 다짐하고^^ 폭풍 검색을 시작했죠~여러 브랜드의 속도, 메모리, 가격, AS 열심히 비교비교 해왔습니다. 1달 가까이를 비교해 본 것 같아요~ 최종 선택!^^ 삼성 갤럭시북 NT50XDZ-A71A 11세대 i7 고가의 제품을 인터넷으로 구매하려니 조금 망설여졌는데, 도착하니 괜히 망설였다 싶어요^^윈도우는 제가 따로 구매해 설치했는데... 아주 간편했습니다^^ 새로운 세상을 만난 것 같아요~ ^^ 이제 수업을 준비하는 것도, 수업을 하고 듣는것도 모두 즐거운 시간이 되었답니다. 이렇게 좋은 제품 저렴하게 구입할 수 있게 해주셔 감사합니다~
+웹개발자입니다.9년간 사용해온 3세대 i7 업무용 노트북이 부팅 시 윈도우가 설치된 파티션도 못잡고 ... 보내줄때가 된듯하여 알아보던 중 갤럭시북 NT750XDZ-A71AU 을 알게되어 구매까지 하게되었습니다!9년만의 새 노트북이라 그런지...성능은 두말할것 없고, 디자인도 매우 맘에 드네요 ㅎㅎ특히나 180도 펼쳐짐이 완전 신세계!!그리고 c타입 충전과 아주 작아진 어댑터로 신세계2!!(그간 너무 유물을 안고 살았...)아직 윈도우만 설치한 상태이고실제 업무용으로 사용 전이라 발열 및 소음에 대한 평은 어렵지만.. 윈도우 설치 후 드라이버 설치 시(정확히는 삼성 앱 설치) 발열과 약간의 소음은 발생했습니다.이건 네트웍 연결 후 최초 앱설치(삼성 시큐리티 및 설정 등등)라 그런듯 합니다.랜포트가 없고 usb의 확장을 위해 c타입 허브는 필요할듯 합니다.썬더볼트 미지원은 좀 아쉽지만...hdmi 직접연결하고 랜과 무선용 리시버 등만 사용할것 같다...라고 위안삼아 봅니다.주말한정 256기가 추가되어 저장장치 용량이 넉넉해졌네요 !원래있는 512기가는 파티션이 나뉘어 있습니다.50/450 정도로... 합치고 싶었으나 귀차니즘으로 50기가 파티션에 윈도우 설치 했습니다.드라이버 설치 중 갑작스런 로그오프?  이후 재부팅 중에 블루스크린이 약간의 당황스러움과 함께 찾아왔지만다시 부팅시도하니 정상적으로 윈도우가 시작되었습니다.
+구매한 제품은  NT750XDZ-A71A 입니다.기본 구성은 노트북, 충전기, 유선 마우스 입니다.아직 쓴지는 얼마 되지 않았지만 속도도 빠르고 15인치라 화면도 커서 만족합니다. 팬 돌아가는 소음도 크지 않아서 학교에서 사용 가능할 것 같아 마음에 들어요.15인치는 처음인데 숫자키가 따로 있더군요. 동일 사양 중에서는 저렴한 편 + as 편한 삼성이라는 메리트에 반해 결정했습니다.I7 + 램 16 + ssd 512에 무료 256기가 업그레이드 받았습니다. 요즘 나온 노트북답게 c타입 충전, usb 단자가 여러개여서 좋았습니다. 아직까진 당연히 별 단점이 없지만 프리도스여서 윈도우 설치가 필요합니다. 저는 컴알못이어서 어렵더군요. 아무 생각 없이 윈도우 설치했다가 드라이버들이 다 날라가서 재설치하느라 고생했습니다. QnA에서 다른분께 남긴 답변을 참고하시거나 삼성 서비스센터 홈페이지에서 드라이버를 다운, 업데이트하면 네트워크, 소리 다 정상 작동 됩니다!
+코로나로 인해 재택근무가 많았는데 오래된 노트북은 아무래도 너무 느리고 용량도 없어서 불편함을 느끼던 찰나에 가성비 좋은 노트북을 찾다가 후기가 좋아 구매하게 되었는데요. 역시 기대이상이네요 .기본 구성품은 본체와 유선마우스, c핀어댑터 충전선이 들어있습니다.기존에 사용하던 벽돌수준의 구형 어댑터는 큰 부피와 무게 때문에 상당히 불편했는데 이제는 그런 불편함을 덜 할수있어서 너무 행복합니다.간단한 업무용으로 사용해도 부담이 없고, 화질도 좋아서 영화나 드라마를 봐도 좋을 것 같습니다.(안티글래어 기술이 적용되어 눈을 편하게 해준다고 함.)우수한 성능에 얇고 가벼워 휴대하기도 좋은 노트북 인것 같습니다. 강추강추!!!
+모델명: NT 750XDZ-A71A (미스틱 블루)색상은 사진이랑 똑같습니다. 무난하게 잘 사용할 수 있는 색상입니다. 무게는 적당합니다. 약 1.5kg. 너무 무겁지도 가볍지도 않은 적당한 무게입니다. 그램만큼은 가볍지 않지만, 이 정도 성능에 그램은 가격이 엄청나게 나옵니다. 충분히 타협 가능할 만한 무게라고 생각합니다. 성능은 인텔 i7 11세대로 성능 걱정은 이제 남의 나라 얘기일 겁니다. 기존에 쓰던 i3 노트북은 프로그램 몇 개만 돌리면 버벅거림이 심했는데 이건 전혀 없습니다.카메라도 720p로 요즘 비대면 수업으로 정말 필요했는데 이게 정말 좋은 점이 노이즈 캔슬링 기술로 잡음을 잡아주어서 제 목소리가 더 깔끔하게 들립니다. 듀얼 SSD로 자유롭게 용량 확장도 할 수 있는데 이벤트 기간에 256G나 무료로 추가해드립니다.아쉽게도 20일에 제가 주문을 하고 나서 이벤트가 시작되어 받지 못했습니다. ㅠㅠ저처럼 이벤트 기간이 지나서 받지 못하여도 삼성전자 서비스에서 SSD 교체나 확장을 받을 수 있고 삼성전자 서비스에서 교체나 확장을 받으시는 것을 권장 드립니다.또한 충전기가 c 타입이라는 점이 정말 놀라웠습니다. 기존 노트북은 충전하기 정말 휴대성이 떨어져서 가지고 다니기 번거로웠는데 이제는 편하게 충전할 수 있습니다. 단, 전용 어댑터로 충전해야 충전속도가 빠릅니다.또한 180도로 화면이 돌아가 각도조절이 자유롭다는 게 마음에 들었습니다.휴대폰을 갤럭시 쓰시는 분이시면 굉장히 추천해드리는데 갤럭시끼리 정말 연동성이 미쳤습니다.핸드폰, 태블릿끼리 파일도 보낼 수 있고 스크린 공유도 할 수 있어 좋습니다.배송은 정말 빨리 왔습니다. 비가 와서 늦을 줄 알았는데 주문하자마자 다음 날 바로 왔습니다.p.s. 곧 대학 생활을 하게 되는데 정말 유용하게 잘 사용할 수 있을 것 같습니다. 성능, 유틸리티, 내구성, 편의성, 적당한 무게 어디 하나 부족함이 없는 상품입니다.
+9메탈 쓰다가 동생한테 넘기고 좀 더 고사양 노트북 알아보다가 가성비 노트북이라 해서 유튜브나 지식인등 나름 검색 셀프검증 하고 질렀습니다.! 주 사용 용도는 포토샵,일러,유튜브시청 정도의 용도 입니다.! 데스크탑이 I3라 노무 답답하고 느려터져 속터져서 지름신이 온것도 한 이유 입니다.!우선 속도가 진짜 빠르네요.. 멀미 날 정도로!! ㅋㅋ 유튜브나 인터넷을 띄우고 동시에 일러,포토샵까지 돌려도 버벅임이 없네요!! 역시 쌘삐가 좋은건가?! ^^ 바디도 겁나 빡씨고 튼튼합니다!! 부엉이 바위에서 떨어트려도 노상관 일듯 합니다!! 달레반에게 뺐기지 않게 소문내지 말고 조용히 써야지!! - -
+큰 맘 먹고 구매했는데 아주 만족합니다~ 회사를 다니면서 교육과 문서 작업 등을 해야 할 일들이 많았으나, 집에 있는 오래 된 데스크탑이 계속 멈추는 문제가 발생하여 데스크탑과 노트북 중에 고민을 하였슴니다.일단 노트북을 택한 이유는  휴대성이 가장 큰 이유였고, 제가 주로 사용하는 문서작업이나 동영상제작, 파이썬프로그래밍에는 노트북으로도 충분하다고 생각했기 때문입니다.일단 써보고 있는데 결과는 만족입니다1. 디자인이 이쁘다 - 깔끔한 삼성마크에  무난한 네이비 계통 블루2. 갤럭시북 치고 가성비 있다 - 갤럭시북 네임드에 다양한 혜택까지 생각하면 꽤 합리적으로 구매했다고 생각합니다.3. 휴대성 - 무엇보다 휴대성이 좋아서 너무 만족하고 있습니다.
+NT750XDZ-A71A구매하였습니다~ 어제  구매했는데  오늘  도착했답니다 프리도스여서  윈도우 설치신청하고  키스킨과  화면필름까지  구매완료~ 오자마자  노트북  켜보니  열자마자  전원이  들어와서  신기했습니다   미스틱블루  색상도  깔끔하고  쉽게  더럽혀지지 않을것  같아서  또  마음에  듭니다 노트북을  잘  알지  못하여  램도  16G가  코어 i7 11세대가  어떤  작업을  같이  하더라도  버벅거리지  않는다고  하여서  골랐습니다  아직  많은  작업을  해보지  않았지만  좋은  가격으로  잘  샀다는  생각에  만족스럽습니다  상품평이  좋은  것도  구매하는데  한  몫 하였답니다  잘 알지 못하지만  공부해서  잘  사용해보도록  하겠습니다
+삼성노트북만 3번째 구입이다. 이번에 구입한  NT750XDZ-A71AU(미스틱 블루) 색은 이전에 쓰던것과 거의 비슷한거 같다. 어제 밤에 12시가 넘어 주문했는데 오늘 오후 2시가 조금 넘어 도착했다. 뽁뽁이 포장이 잘되어 왔다. 업그레이드를 위해 한번 취소하고 다시 주문하면서 금액이 살짝 올라기긴 했지만 그래도 가성비좋게 구입한거 같다. 윈도우 설치도 동영상을 보고 쉽게 설치가 가능했다.키보드 키간격도 넓고 좋은거 같긴한데 F와 J위치를 표시 볼록한 표시가 너무 약해서 불편하다. 스티커를 붙여서 해결하고 나니 아주 좋아 진거 같다.
+</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.920831561088562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70.94233906691541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북 NT750XDZ-A71A</t>
+          <t>LG전자 그램17 17ZD95N-GX5SK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289000</v>
+        <v>1457920</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=Bcv8c3fApulQvFU2G+/zvv///w==k8YJim2C0UOlBgkh0iVPpEtwq8fJWnOlNp5+Y/xaXbQgsz8MSYznl1qmNaySeW3XWcFKFXcZpd7eaDGSKIOs1WrjejjyPIiVfN8pqYnyawuKrNmx7iG4lUEPURGq0curhSK3ajrbRfdzs1FlEnTyeJmY+BnQji7tKXA5bad1peMNDH6Nsx4K3ghiBECRWNaYZetZGVOt+KWVHufUw/Js8pkns9FrDeP1PGwNjGwrKefcgzoT33caNv/H7u0Z3FF1W3KM0hjreKTLzX4lW3aomQ2BdtmKyatECauyYXoRkjtHojYsN0Pha+LfrzA1FDODxbzhgVAgR/UmZJxlP0grGIowJQwZLerjG3e8yhKoN7d/2mrui5Lfeb8/BcAuOm4zobTkQsp5tXLVWJhxE6d9r5YaMATR+V76C2jQp2euv/Uwar4wxsIgKkNulFnd7z2PM1TzN2G8tCHZOstaLDKmtnKsfFz3tZ7M5Tvhu5eSEU2PxH/JI2ww6XTJkCRfdgNZWheZU9so6xz8JjXjjCZwn+Ukj3v0CcGus5ULdfF+1m/xz39O5posuHg6jVcAARdV2FlUiWSrQIaIGoVGnCvBQor88SQ82XwcvU1v5KG8IJSbfqquT/Yw+ovZIQvzA2yMwyuUiza8mqo5pPdefhq0Fg3151Jw0xCs67Ca+XON16Q5TaL/4ySAIoMIGqov/lc8xl8s1aROlcAS578V9Zmrn5cH4SeRvppLNu8mFvikj4sduZxrSmuJe+1nEC56W1Rr4geFMXbg9E8fJkj1HarGZWw==</t>
+          <t>https://adcr.naver.com/adcr?x=NR7vi3VXPOQdveQRb/X3Xf///w==kGThvLMNpfPivm3PywoFTFTNFjkZMNo4K0C8Ck/SwIPl/ZjwFDxuVU+WA6klIgPypVpfA9L09B02YcAT5COODj3WTB2woLtWqUtQG6liB6CSE2HFeqqdoc4rfT+XYdprq3fp6ZHBzQssal1eFPw8FwkEp4CUZSUjvsneRDTjB9qIbxpM43nWYRWzDNYCLyfrNrW8q18isrUBIaiVmDYAp+DYya2OPDW6sBUpMQIJZFhe0w3WxbS13YnTVJB8dJ10yMVnOsE17QPZTbIrSP3Hrf23KcXrTaI9pfKnl6uXV2+90j16/3dZFsCCGjttd2MvWeqnCC3w9/Q5khh9ES494pHB5v/w90JcyxGQuzrh1Tr8wlsqZ8C2N02bQ8Ksbz1dKLBogGx9rNNx/o6POrDFpm7p/gldcf1TA3W2d6E9pKT7bXYCCdAjjNavvf602vqGim0OlLtliUCmGwx91sfEKHcxQ5/fVm+pJOvCWkxHnCg7sSULDL8VDffiVIL/J9XkztvS+CjTIHDmpDkXly9ptSqLNuL9TIl8O+5pzM9a+nteAMd/haFvKCC5ht0Kht9VVxFvXac/nDBK0nbVdt6H3dkFWLUInNt+GQAd2Rg8GeLpyN1SxPPIEL7Qgl34pDoHeP2HxszD6mQCdDHJeNyi5f93G8mEKpYe90v35UuAajmy197N93IN9utzia+1fwlgKlkcYkCqB4pvyUEoRhbeeaFTBcWLq3056WLVslJJQiDntb/io1/LcOo7jnE1BdaoH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북 NT750XDZ-A71A 국민카드가 없어서 카드혜택을 못 받았어요.그래도 사양이나 가격대를 봤을 때 괜찮은 상품이라 구매했습니다.디자인은 제 취향에 어느정도 맞는것 같습니다. 화려한 디자인은 쉽게 질려서 투박하지만 깔끔한 디자인을 원했는데 나름 만족하고 있습니다.사양은 노트북치고는 꽤 높은 사양입니다. 실제 체감은 오피스 설치하고 카카오톡 까지 설치한 현재 아직까지 버벅거리지 않고 아주 잘 돌아가고 있습니다. 노트북인지라 향후 성능은 크게 기대하지 않고 있습니다만 더 많은 프로그램을 설치한 뒤에도 어느정도 성능은 기대 할 수 있을 것 같습니다.드라이버는 아주 친절하게도 E드라이브에 친절하게 담겨져 있는데 이 내용이 상품 설명에 없는 건지 제가 못 찾은 건지 잘 모르겠습니다만 어쨌든 잘 설치했습니다.마우스는 새로 꼭 구매하시거나 리뷰로 블루투스 마우스를 받아보시는게 좋을 것 같네요. 현재까지는 매우 만족하고 사용하고 있습니다.</t>
-        </is>
+          <t xml:space="preserve">우선 주문한 바로 다음날 배송을 받을수 있어 좋았습니다.그램17인치 모델 중에서는 가장 저렴하게 구매한 것 같습니다.10년된 노트북 쓰다가 그램으로 업그레드하니 완전 신세계네요.부팅에 10초도 안걸리는것 같고 화면도 17인치 대화면이면서 메모리도16gb제품을 이 금액에 득템해서 매우 만족합니다.
+하얀색보다는 때가 덜타는 실버를 선택하였는데 만족합니다.17인치라 화면이 생각보다 더 크게 느껴지고 좋습니다.단, 2021년형이라 전부 충전기가 썬더볼트 일거라 생각했는데예전 타입이네요. ㅠㅠ
+좋습니다. 이가격에 17인치면 혜자혜자!   구성품도 만족입니당. 키감도 좋고 화면도 양품이네요. 잘쓸래여
+잘도착했습니다. 만족
+배송도 빠르고 문의대응도 빨라 좋았습니다.좋은 제품 잘 사용 하겠습니다.
+급하게필요해서 퀵으로 받아 설치했어요 컴퓨터 좋고 친절하시고요 동봉해주신 256메모리도 감사합니다^^
+배송 빠르고 정확합니다. 감사합니다.하드디스크도 추가되어 있어 편합니다.
+이번 그램은 메모리 업그레이드가 안된다고 하여 16기가 제품으로 찾다가 원하는 사양에 모델로 행사한다 하기에 얼른 구매했어요^^ 배송은 하루만에 도착했고 다크실버색상 고급스럽네요  완전 만족합니다
+8년만에 엘지노트북 다시 샀는데, 행복합니다. 잘 쓰겠습니다.영롱하네요ㅎㅎ
+이번 그램은 메모리 업그레이드가 안된다고 하여 16gb제품으로 찾다가 원하는 사양에 모델으로 행사 하길래 구매했습니다~~~~배송은 하루만에 도착했고 다크실버색상 고급스럽고 멋지네요 최고입니다
+노트북이 오래되어 부팅시간도 늦고 와이파이 접속도 자꾸 끊겨 노트북을 알아보고 있었는데 위메프에서 그램 행사가 있어 저렴하게 구입하였습니다17인치 화면은 크고  가볍우며 빠른 실행에 매우 만족합니다
+화면비율이 16:10이라 그런지 휠씬 커보이네요 17인치에 이정도로 가벼운 무게는 그램밖에 없는듯 하네요 사은품도 빠짐없이 잘왔어요 키보드 타자감도 너무 좋아요~
+확실히 가벼워요 17인치가 제 15인치 기존노트북(레노버) 무게의 반정도밖에 안되는것 같아요 백팩에도 무리없이 들어가고 휴대로 사용하신다면 아주 강추합니다
+물품 잘 받았습니다포장 꼼꼼하고 배송 신속합니다
+포장 꼼꼼하게 잘왔어요~  노트북은 처음 써보는거라 좀 어색하긴 한데 가벼워서 좋네요ㅋㅋ 예쁘게 잘쓰겠습니다^^
+무게도 정말 가볍고 화면도 매우큽니다.저렴한 가격에 잘 산 것 같습니다.잘쓰겠습니다 감사합니다!
+화면 비율이 16:10이라 그런지 훨씬 커보이네요 17인치에 이정도로 가벼운 무게는 그램밖에 없는듯 합니다 사은품도 빠짐없이왔고요 ㅎㅎ 키보드 타자감도 좋아요
+짱짱합니다 가볍고 좋습니다
+아주 만족합니다. 배송도 빨랐고 속도도 빨라요!!
+화면비율도 좋고 직접 만져보니 17인치인 줄 모를정도로 가볍고 좋네요.빠른배송에 파우치와 사은품도 잘 챙겨주시고 너무 만족해요.
+</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.993574321269989</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68.15012629430895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북 프로360 NT950QDB-K71A</t>
+          <t>삼성전자 삼성 NT350XCR-AD5AS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2199000</v>
+        <v>569000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=5v8DnoMYSbIvwg+Vdad7rf///w==kOTcpORrzRL2rvvZrHWxafkAvBptqSuVmmRQwl4BEF07EOuef02qcOa2t1tVXZLvgmSqd7xzAo22jU93PtBC2AjSzsMzfQRIfdVrPoMYuJgPhCJWPFLfwCeJ9YZCnu2+K6MK69KkEnft8bbaYFf1MDSKinpX/zUdh6/8Yl1hM24qXbPGwm7vjsXcYtWukQBbp1xDQIRfKiBgNgIT18970dEY6wspa6KZt9P5k06LUES+bSt7LJf+jvaydwR4eryyxJZ3PIcrJoCGsI6LcqigQEMqdC+VgvtbnlcbwFAGgt/SX3QDTvhPb/vi0Wv8H0mxlr6DQwzy8AMxHnRIgh3NkCGtaqt2vYD1RyhY+UZxbeFtco229yqkGVb/lh/Ukwm23aSk+52xWdW5xReMKJGzGyUnmreyL44OtqEssatY2/VMBR73V/IwEbDYb+i2gfoGujEiMIX5DR7meIGln24LcG8LCybxQ5kjUgj3nkEq8moCmjLi7BOU8jj9ioqHEZVLMoMSpdRHw07kZEPP7Ebas2McXTA5yVtDYuzmKBaU0n8fnkcg1s/NhbnItgmCt3fzGCvf/hU5JreG1pObYdxiDCBsfgyuusA0lwMyAq+nwB3B0w3Hl13JeQ/v9k3NRwkcQ8ijeZCXbABiwoXvKHprw0L8LOhv7fI9bJsFgEnwZSioR0njXq7SUfJXuFv4C4AgchruKnNCCgMRzkvmYygweJRtQEoROGTy+Juwcdb536WGMXRjfYPgRyRY8njiuHaG8X1k90np89xRV/nYP6aIF+w==</t>
+          <t>https://cr.shopping.naver.com/adcr.nhn?x=OiWpq2UMrkNEoZHj5dM9i%2F%2F%2F%2Fw%3D%3DsVqnYalHi9qbpCVMEAz%2BodDD42HqIcOGejNzv2%2Fat0eAXtKWU5l2RZhzweonlysWaMCcK%2BPjcaVRJK1CZGSw3lSuRrA%2FEOWA3Ag8FfJr8KwLk%2BBnTT%2BeyHZ2PB6RaT6Lyxufr8v0LsORhMSLYJVIH2cv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKAqrvHpnlhxjDGI16q0RO7djMLMF37IGTcafAkl8SUA2Ns2H4zHWoQIfujeLGeulExTOkjawsOxsl5BcK%2BEoPKWMjnQdnL9wtXZ1LI9BLQeEQhkkHXK4%2FmSRy5icYE%2F27BW36r4QZshREfg%2B3vq7RNuRmX1NCAqfwcUEkZt9Lado6JIeyjRJJG8AQSjlBThBKp3jk9AO5BAkuk44PWMzaVkg%2BT0caKwQem2pFdtL%2Fa3wiNvEAyH7XT6ObGe95mRdUr0E05Pbj0syBjTGc%2FiT%2F9rwCaqB8YXWVLh4ECsxeNdeQp8T6uYukhy0c3BkjuEBjaq1OonHzzkhOWT4iP9Q33xLPHBVE1X9hF6ZkrnPWwITrBfJddYxAr8BrT7otbNsonHeC8HjaVvDUDIP%2FMQwpN2hopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=25228569522&amp;catId=50000151</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2in1 제품인 거 감안하면 비싼 건 아니라 생각합니다. 무게가 무겁다면 태블릿 모드 의미가 없을 텐데 워낙 가벼운지라 2in1모드 매력있습니다. 15인치임에도 이리도 가볍고 얇을 수 있다니! 이전에는 노트북 갖고 나갈 것도 무거워서 에잇 하면서 안갖고 나가기도 했는데 이제는 그럴 일 없어졌습니다.</t>
-        </is>
+          <t xml:space="preserve">앞에쓰던 노트북이 4메모리.128g라서 조금 사양이 딸리는 듯 하여 검색 검색 또 검색 일주일을 고민하고 고른 삼성노트북 NT350XCR AD5AS화이트가 난 싫어서 가격이조금 차이가나도 실버로 선택했다. 네이버페이랑 kb국민카드 행사여서 거진 11만원을 돌려받음 가격은 화이트랑 비슷한 듯 하다.  뽑기운이 안좋은지 처음엔 노트북이 조금까진게 와서 급 꿀꿀했다 ㅠ상담원들이 빠른대처를해줘서 그나마 4일정도 교환하는데 시간이더들었지만 오늘 새제품을 받을수있었다. 오늘받아서 응모로 당첨된 usb를 꼽고 한사랑블로그에서 가르켜준대로 깔았더니 내손으로 윈도우10home이 설치되었다~~~부팅되는시간이 15초가량 걸리고무게는 정확히 1.8kg이다. 14인치에비해 엄청크게느껴진다. 대대대만족이다^^
+고딩인강및 대학생때까지 사용할용도의 노트북을 찾다 이제품을 만났네요 최근에 나온 갤럭시북과 엄청고민했었는데 게임은 안하고 사진 동영상 많이 저장하는 딸래미 특성을 감안 HDD1T추가로 이제품을 결정하고 어제 주문하고 오늘 받았습니다 빠른배송 좋네요 윈도우미인증설치로 주문했는데 다행이 깔려서 왔네요 살짝 컴맹이라 버벅거리긴했지만 사이트에 올려져있는 설명보고 무사히 설정끝내고 이것 저것 만지작거려보니 동영상도 잘돌아가고 속도도 이전 제가 아는 컴과는 확실히 다르게 빠르고 좋네요 메모리확장도 가능하니 추후 메모리만 추가하면 대학생때까지 사용하는게 가능하지 않을까 싶네요  디자인적으로 슬림한 디자인 맘에 듭니다 다만 1.8키로의 무게가 생각보다 무겁네요 휴대성에서 무게로인한 조금의 불편함을 사람에 따라 느끼겠다 싶습니다최신제품보다 아주 살짝 스팩이 떨어지지만 고사양께임이나 프로그램을 돌릴게 아닌이상 딱 적당한듯합니다 휴대폰으로 치면 최신폰 바로 앞폰이라고 할까요 슬림한 디자인 빠른 부팅속도 성능 푸짐한 사은품 그리고 삼성에듀 무료강의 우리 고3딸래미가 사용하는데 딱인듯합니다
+아버지 회사에서 사용할 노트북 구매후기입니다.급하게 회사에서 쓰시던 노트북이 고장나는 바람에 빠른 배송이 되는 좋은 제품을 찾았는데 배송도 너무 빠르게 왔습니다.급히 찾으시는 분들도 이 제품 사용하시면 좋을꺼 같아요노트북 구매하면서 마우스, 키스킨, 파우치도 같이 챙겨주시니 번거로움과 금액면에서도 너무 좋았습니다.세팅해드리면서 이틀정도 테스트 해봤는데.성능도 너무 좋습니다. 기본적인 업무용도에서 사용하시기에는 만족스러울듯 싶습니다. 인터넷과 엑셀, 워드 등 여러개 띄워서 사용하기에도 버벅임없고 무리없이 사용하기에 괜찮았습니다.15인치 노트북이라 화면크기도 적정하고 베젤도 넓지 않아 보기에 문안합니다. 화질도 업무용 사용하기에 무리없어보입니다.무게도 사무실에 놓고 가끔 들고 출장가시는정도라 1KG 초반 제품보다는 당연히 무겁지만 사무실용으로는 좋습니다.삼성이라는 브랜드때문에 일단 아버지가 좋아하시고 AS에 대한 걱정도 없기때문에 편안하게 제품 사용하실꺼 같아요.사용하시다가 조금 불편함 느끼신다면 업그레이드도 가능한 제품이라 더 좋은거 같습니다.업무용이나 인강용 제품으로는 최고인듯 싶습니다.많이들 이용하세요.
+가성비 좋은 노트북을 찾던도중삼성노트북임에도 좋은 가격의 제품을 찾게 되었습니다좋은가격에 노트북 필수 사은품까지 챙겨주셔서 만족도가 높네요노트북케이스에 무선마우스 등등 추가로 비용들 일이 없네요인강이나 화상수업뿐만 아니라 다용도로 사용할 수 있을거 같아요I5 8G 256G 의 성능을 가지고 이가격인건 정말 좋은 기회인거 같아요용량이나 램이 부족하면 편하고 쉽게 업그레이드 할 수 있는 장점까지 있네요 이가격에 삼성노트북을 구매하게되어 정말 만족스럽습니다
+삼성 노트북 그레이 색상 제품으로 구매했어요 평소 직장에서 사용하던 노트북이 갑자기 느려지길래 급하게 구매했는데 이틀만에 도착해서 일단 배송 면에서 첫번째로 만족했어요. 보통 노트북을 구매하면 마우스, 키스킨, 가방 등 여러 부속 제품도 같이 구매하느라 과소비로 이어지게 되는데 전부 챙겨주니까 따로 구매할 필요도 없었고요 길지는 않지는 삼사일 실사용해본 뒤에 후기 남겨봅니다.1. 성능 ⛧⛧⛧⛧⛧저는 기본적인 업무 용도로 비교적 라이트하게 사용한거라 성능 면에서는 아쉬움 없이 만족했어요 가볍게 라이트한 게임을 돌렸을 때에도 별 문제 없었고 4k 영상 재생도 부드럽게 잘 재생되네요. 창 10개 정도 띄워놓고 사용했을 때에는 버벅임같은 것도 따로 없었어요. 헤비하게 사용하시는 분들은 조금 부족함을 느낄 수 있겠지만 단순 인강, 업무 등 학생들이 사용하거나 직장인이 사용하기에 충분한 성능이였어요.2. 디자인 &amp;amp; 무게 ⛧⛧⛧⛧⛧전에 사용하던 노트북이 13인치 모델이라 처음 들었을 때 이전 사용 모델에 비해 다소 무겁다고 느꼈지만 파우치나 가방 등에 넣어가지고 다닐 때 불편함을 느낄 정도는 아니였어요. 요즘 15인치 모델이 보편적으로 나와서 그냥 평범한 노트북 무게라고 생각하면 됩니다. 화이트 모델보다는 그레이 모델이 나을 것 같아서 구매했는데 상당히 고급스러워 보여서 만족합니다. 3. 화질 &amp;amp; 선명도 ⛧⛧⛧⛧⛧4k 영상 몇개 틀어본 결과 화질도 매우 선명하고 좋았어요. 제가 화면 패널을 알거나 할 정도로 전문가는 아니지만 그냥 영상 보기에는 딱히 불편함 없이 원활하게 시청할 수 있는 화질이였어요.4. 배터리 ⛧⛧⛧⛧제품을 구매하고 아쉬운 점을 딱 한가지 뽑자면 배터리였어요. 이 제품도 일부 뽑기운이 존재할지는 몰라도 가벼운 프로그램 (워드, 엑셀 등)을 사용하였을 떄 1시간 정도 사용 기준으로 20~30 % 정도 빠졌네요 이건 아마 최적화 중이기 때문에 더 장기간 사용해봐야 확실히 알 수 있을 것 같네요 !!!!!!결론!!!!!!1. 인간, 업무, 단순 영화 시청 등 라이트한 목표로 사용한다.2. 추가 금액을 지불하고 마우스, 가방 등 부속 제품 사기 귀찮다. 3. AS 신속하게 받고 싶다.4. 상황에 따라 용량 등을 자유롭게 추가하는 모델을 원한다. &amp;gt;&amp;gt;&amp;gt; 추천드릴게요 라이트 유저들에겐 최고의 가성비 노트북인 것 같습니다
+1. 가격 네이버 멤버십 플러스+갤럭시북베스트모델전 행사 떄문에 정말 말도 안되게 저렴하게 구매해서 너무 좋았어요.2. 배송 목요일밤에 주문했는데 토요일 저녁에 왔어요. 세상빠름? 포장도 완전 안전하게 되어서 와씀3. 사은품 윈도우10미설치 제품으로 USB 응모했는데 되었고! 마우스패드, 키스킨 그리고 넘나 귀여운 댕댕이 파우치까지 완벽4. 윈도우 설치 및 기본 세팅 저렴하게 구매하려고 윈도우 10 USB 응모를 했는데, 다행히 되었습니다(감사감사), 상품판매글에 게시된 "세상 친절한" 블로그글보고 따라 했는데 정말 쉽게 할수 있었음. 또한 사운드 등 기본 드라이버 설치도 게시글에 있으니 따라해서 금방할 수있었음4. 상품  색상:퓨어화이트라는 이름답게 정말 세상 하얀색이라 너무 기분좋음. 사양:i5, 램8GB, SSD 256GB 내가 쓰던것보다 훨~~씬 좋은 최신컴퓨터 너무좋다. 디스플레이-15.9인치 시원, 종합적으로 뭐 하나 빠지는거 없었음. 부모님쓰시라고 가볍게 산건데 너무 너무 만족!
+아카데미 기간안에 사려고 12월중순부터 노트북을 구매하려고 했는데종류가 너무 많기 때문에 몇가지 조건을 정해서 고르려 했음.가격은 100만원 이하 제조사는 AS센터가 인근에 있는 삼성, LG, ASUS화면은 15인치아카데미 기간안에 구매를 해야하니 충분한 시간적인 여유가 있었음.연말 할인을 많이 하고 있었기에 1월달이 되면 더 할인이 될 줄 알았음.그러나 할인률이 더 나빠졌음. 게다가 예약판매 기한이 더 미뤄지는 문제들이 추가가 됐음.많은 모델중 더 추려야 할 것같아제조사는 삼성으로 확정.CPU는 11세대 i3와 10세대 i5 사이에서 고민했으나 등급자체가 다르니 i5로 확정모니터 패널은 IPS를 무조건 고집했으나, 가격적인 면에서 TN으로 양보.모델은 NT350XCR-AD5AS로 기본모델로 확정.가격추이는 이 곳 한사랑씨앤씨가 제일 저렴했고 쇼핑몰의 정책에 따라 계속 바뀌었다. 20년 12월말에 70만원초중반21년 1월에는 70만원 중후반2월이 어떻지 고민이었지만 분명 더 좋아지진 않을 것 같았다.하지만 카드사의 청구할인이 월초에 다시 시작한다면 만회할 수 있으리라....꾹 참고 2월 1일날 검색.... 인터파트에서 청구할인이 시작됐다.국민카드 10%청구할인~ 오예~ 여유돈이 있어 가방까지 추가해서 구입완료.기본 할인률은 다소 떨어졌지만 청구할인으로 더 할인을 받음.제품은 생각보다 얇았고, 컸음.13인치 노트북 사고나서 5년은 된것 같아서 그렇게 느꼈으나 그냥 좋음.상품평은 많이 봐서 패널이 좋은건 아니라는 건 알고 있고, 게임할 꺼 아니니, 고장만 아니면 만족함. 나도 삼성노트북 하나 장만했다!  마우스랑 패드는 사은품 가방은 옵션으로 추가구매.
+진짜  몇일을  고민하고 이 노트북 결정을 했는지  몰라요~~ㅜㅜ솔직히  신제품중에  좋은사양으로 구매하자하니 100만원대가  훌쩍 넘어가고..그래서 중고중에 보통 스펙으로 사자 이곳저곳 알아봤는데  거기도 60만원대...고민고민 하다가  그가격이면 새제품을 사자고 맘먹고 알아보던중..믿을수 있는 삼성 브랜드에 후기도 괜찮길래 폭풍검색.딱  제가원하던 스펙정도에 가격은 중고보단 올라가지만 많이 차이 나지 않아서nt350xcr-ad5as 삼성노트북으로 결정~!!주문하고  이틀만에 받았어요~~두근두근!!!실버로 사길 잘했어요~~인터넷속도도 괜찮고  윈도우 신청해서 바로 인증하고무게가 있다는건 알았고휴대용보다 집에서 쓰려한거니 괜차나요~잘쓸게요~~  사은품도 잘챙겨주셔서 감사해요~~
+짧게 끝날줄만 알았던 코로나 시대 점점 깊어지고 길어지는거 같아요.회사에서도 의무적으로 사무실 비우기를 하고있는데 집에있는 오래된 데스탑으로는회사 시스템 조차 돌아가지 않더라구요내년엔 아이도 초등학교에 입학하는데그즈음 구입하려던걸 조금 당겨 준비했습니다.기본 사향으로도 잘 돌아간다고 하던데아이 사진도 많고 RAM은 조리대 개념으로 생각하라는 설명에한단계 업그레이드해서 16기가로HDD 1TB 추가했습니다.아직 프로그램이랑 자료가 없기도 하지만부팅은 10초정도 끄는건 3초도 안걸리는듯요.잘 구입한거 같아요.오래 고장없이 쓰고 싶어요.노트북 종류가 너무 다양해서 선택하는게 너무 망설여지고 고민됐는데판매자님께서 질문에 답변도 빠르고정성스럽게 해주셔서 도움이 많이 됐고사은품 또한 꼭 필요한 것들로 꽉꽉 채워주셔서 감사드립니다.
+작년에 처음으로 한사랑에서 구매하고 올해 초에 한번 더 구매하고 이번에 또 구매했네요~ 벌써 3번째 구매예요!! 배송도 빠르고 꼼꼼하고 가격도 착해요! 이번에는 판매자님께 추천받은 제품으로 구매하였는데, 역시나 추천하신 이유가 있었어요. 훨씬 더더더 만족해요!!! 이 조건에 가격이 너무 착해서 덕분에 기분이 좋네요~ 운영체제가 좀 더 높은 단계여서 그런지 굉장히 빠르구요, 이 사양에 가격이 너무 착해서 바로 구입하였어요 이전 두개가 화이트였는데 실버로 구매해보니 새련된 느낌이 나서 뭔가 고급진것 같아요!!! 덕분에 너무 좋은 제품 잘 구매했습니다!!!
+갑자기 잘쓰던 노트북 메인보드에 문제가 생겨 긴급하게 구매 하게된 제품인데 여러군데 사양 및 성능, 리뷰보고 여기서 구매 하게 되었내요  배송은 잘 포장해서 2일 만에 문제 없이 받았고요.  문서 작업을 많이 해야 하기에 메모리 16으로 업그레이드 요청했는데 문제 없이 업글해서 보내 주셨내요.  무게는 약간 무겁게 느껴지지만 문제 없을것 같고, 같이 보내주신 마우스와 패드는 그냥 쓸만합니다.윈도우 직접 깔아서 현재 2일종안 무제 없이 짤쓰고 있습니다.  현재까진 별 문제 없이 부팅도 빠르고 잘 쓰고 있내요.. 한달 사용 후 다시 리뷰 남겨 보겠습니다.  번창 하세요..
+취직기념으로 오래된 노트북 버리고 새로운 노트북 사려고 가성비 좋은 노트북 알아보다가 구매하게 되었습니다.업그레이드 시켜서 받았는데도 배송도 빠르게 잘 받았습니다!! 비가 많이 와서 걱정했는데 잘왔어요~배송기사 분께서도  노트북이라 앞에 놓고 가기 그렇다고 하시면서 전화도 직접 주셨어요사은품도 챙겨주셔서 잘 받았는뎅 파우치는 정말  취저입니다....... 귀여워욥다만 아쉬운점은 무선마우스는 작동이 좀 버벅거려서 쓸수 없겠어요 ㅜㅜ 저는 원래부터 실버색상 사고 싶었어서 색상 너무 만족합니다. 실제로도 색상 너무 예쁘고 모양도 너무너무 예뻐요~ 약간 각진느낌의 노트북이 갖고싶었는데 제가 원하던 느낌이에요~~들고다니기에는 조금 무거운 감이 있지만전에 노트북에 비하면 매우 얇아보여서 저는 아주 좋아요!! 그리고 거의 집에서만 쓰는 거라서 별로 무게는 상관없을것 같아요~원래 노트북도 15.6인치였는데 화면이 훨씬 커보이는 것 같아서 그것도 맘에 들어요~제가 완전 컴맹이라서 제품받고 전화해서 엉뚱한 질문도 막 했는데도... 전화받으시는 분께서 아주 친절하게 대답해주셨어요ㅠㅠ 너무 너무 감사드립니다!!!!!!!!!! 사용하다보면 느려지기야 하겠지만 그래도 지금은 속이 다 후련할만큼 전보다 속도가 빨라진것 같아서 만족만족입니다!!!
+노트북이 필요해서 검색해서 찾던중삼성노트북인데도 가격이 착하고 기능면세서도 만족스런제품이 있어 구입하게 되었습니다.리뷰도좋고 추가 구성사은품도 필수적인 요소들로 구성된것이정말 맘에 들었습니다.나중에 추가로 업그레이드 할때도 정말편하게 되어 있어 누구나쉽게 할수 있게 되어 있는거 같습니다.사은품 구성에서도 귀여운 댕댕이 파우치,마우스패드,무선마우스윈도우설치 USB도 주셔서 완벽 그자체입니다.배송도 하루만에 오고 정말 빨랐습니다.색은 개인취향 이겠지만, 플레티넘티탄색으로 실물이 더 고급진거 같아요.이정도 가격에 이구성 정말 만족합니다. 잘사용하겠습니다.새제품 받고나서 개봉하는 느낌은 언제나 설레고 최곱니다.
+일단 구매한 다음날 바로 받아서 빨리 쓸 수 있어 좋았습니다. 아버지 인강 듣는다고 찾던 중에 삼성 노트북을 이 가격에 구매할 수 있어서 좋았습니다. 당연한 거지만 i5에 ssd 15인치라서 부팅이나 이것저것 빠르고 인강 듣기에 나쁘지 않은 선택이네요. 키스킨이 잘못 오고 무선 마우스가 안 돼서 큐앤에이 올린 담날 바로 배송 보내서 물건도 다 제 때 받았습니다.
+아이가 인강을 마니 듣다보니 필요해서 노트북이 필요 하였습니다많은 제품을 찾아보았으나 성능이 우수한 제품은 너무  비싸고 그렇다고 저렴한 제품을 구매하려 하니 걱정이 되었습니다. 그동안 외산 제품을 많이 사용하였으나 제품을 사용하다 문제가 생기어 A/S를 받으려고 하니 너무 어려웠습니다그래서 이번엔 삼성 엘지 제품을 찾게 되었는데 가성비가 아주 우수한 NT350XCR-AD5AS 를 찾게 되었구~ 구매해서 사용하니 너무 맘에 듭니다.할인 행사도 하여 저렴하게 잘 구매한듯 합니다
+갓성비로 최고인 모델 깔끔한 미니멀라이즘을 추구하는 저에게 삼성노트북 모델은 디자인도 가격도 굿입니다.노트북 파우치와 키스킨, 그리고 마우스까지 덤으로 주는 혜자스러움리뷰나 리플보니 몇 달전에는 더 비쌌다는데... 지금 이가격에 산건 핵이득 같습니다 ㅎㅎㅎ(과거에 사신분께 죄송합니다. 꾸벅)영상과 같이 켜봤는데 화질도 좋구요. 무엇보다 화면이 큼직해서 맘에듭니다.약간 무거울수도 있는데 전원선 없이는 여자가 들고 다닐만 하더라구요.갓성비 노트북으로 추천합니다!
+지난 주말에 주말 특가로 구매했어요.평일보다 주말에 좀 더 싸네요...^^사용하던 노트북이 고장 나서 무슨 노트북으로 구매해야하나 고민하다가 선택한 노트북인데 생각보다 속도도 빠르고 좋습니다.빠른 성능에 저렴한 가격. 가성비가 매우 높은 제품 같습니다.사은품도 푸짐하게(무선마우스, 마우스패드, 댕댕이 파우치, 키스킨) 주셔서 추가 구입하지 않아도 되었네요...좋은 제품 잘 구매했습니다^^
+5월 18일 저녁에 주문했는데 오늘 도착했어요 〰️ ! 배송도 엄청 빨라서 너무 좋았어요 ! 금액도 가성비가 너무 좋고 노트북 성능에 대해 뭐가 뭔지도 잘 모르는 컴맹이라서 여기저기 물어보니 이정도 사양이면 괜찮다고 하더라구요! 저가 브랜드를 구입하려다가 그래도 역시 삼성이 낫겠다 싶어서 찾아보았는데 디자인도 최고입니다 역시 삼성 ^^ 〰️ 보자마자 너무 이뻐서 감탄했습니다. 이 정도 금액에 이 정도 가성비 그리고 디자인도 너무 이쁘고 흰색이라 때가 탈까 조금 염려스럽긴한데 키보드 자판도 검은색이라 너무 좋네요 ^^ 사은품으로 주신 키보드 덮개와 무선 마우스와 귀여운 댕댕이 파우치와 마우스 패드까지 〰️ 너무 좋네요 ! 댕댕이 파우치 마음속으로 비숑이 오길바랬으나 웰시코기가 왔네요.. 하지만 웰시코기도 너무 귀엽네요 ..^^ 그리고 제일 좋았던 윈도우 usb까지와서 너무 완벽합니다. 손쉽게 윈도우 설치까지 마쳤어요. 속도도 매우 빠르고 모니터도 15인치라서 너무 작지않고 좋아요! 사운드도 너무 좋네요.. 노래듣는 것을 좋아해서 스피커를 따로 구입할까 했는데 음질이 좋아서 돈굳었네요! 그리고 모니터도 적당히 뻣뻣해서 크게힘들이지 않고 접었다 폈다 할 수 있네요! 정말 금액대비 너무 잘산 것 같아서 너무 좋아요 !! 구매하실까 고민하시는 분들 있으시면 고민안하시고 구입하셔도 될 것 같아요! 혹시나 다른분들께 도움이 될까 싶어서 이렇게 후기 남깁니다〰️ 한사랑씨앤씨 말그대로 사랑이네요〰️ 노트북 많이 파세요 ! 나중에 지인이 구입한다고 하면 여기로 추천할거에요! 번창하세요 ^^
+기존 노트북이 갑자기 사망해 이제품 선택했는데, 가성비 끝판왕이네요. 대기업제품을 이가격에 살수 있다니! 생각보다 두께도 슬림하고 디자인도 군더더기 없이 완벽하네요. 기존에 쓰던 ssd추가 장착할수 있어 추가 장착 사용중인데 너무 좋습니다. 속도도 제 데스크탑만큼 빨라요! 액정도 비교적 크고 선명하구요. 기가유선랜 있어서 빠른 다운로드 가능해서 좋네요. 유선랜 없는제품들은 좀 불편할때가 있거든요. hdmi포트 있어서 티비나 오디오도 연결할수 있어 다용도로 사용가능 합니다. 필요한 기능이랑 성능만 집어넣어 만족도 최고입니다.파우치랑 무선마우스 키스킨 주셔서 너무 좋습니다.
+2013년에 구매한 노트북이 키보드가 문제가 생겨 구매했습니다.기존 사용하던 노트북도 삼성 제품이어서 삼성으로 알아보고 구매했는데, 저렴한걸 찾다 보니 이 제품으로 선택했어요. 일단 구매 후 실물로 접한 제 개인적인 의견은 후회 쪽입니다 ㅠㅠ일단 무겁다는걸 예상했지만, 예상보다 무겁네요. 13인치 950g짜리를 8년간 사용해서 더 그런 듯 합니다. 가방에 넣어서 들고 다닐 순 있지만 휴대성은 확실히 떨어집니다. 그러니 집이나 사무실 등 한 장소에 두고만 쓰실 분들은 구매하셔도 될 것 같습니다. 그리고 뭣보다 모니터 화질이 가장 어렵네요ㅠㅠ 전체적으로 뿌연 느낌입니다. 노안이 와서 15인치가 더 낫겠거니 하고 구매한 것도 있는데, 대학생 아이가 쓰는 제품도 15인치라 같은거라고 생각했더니 화면이 생각보다 선명하지 않아 눈에 피로가 쌓이네요...이전에 사용하던 노트북은 화질도 선명/깨끗하고 눈에 피로감도 전혀 없었는데 이 노트북은 자꾸 안 쓰고 싶어집니다...이걸로 인강이나 줌 수업 듣다가는 두통이 많이 올거 같아요...후기들이 다 좋아서 구매한건데 기존 노트북 키보드 수리해서 다시 쓰고 이건 따로 처분할까 싶어요ㅠㅠ
+</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07785365730524063</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.68254082693157</v>
       </c>
     </row>
   </sheetData>
